--- a/dotnet6-epha-api/wwwroot/AttachedFileTemp/HAZOP Study Worksheet Template.xlsx
+++ b/dotnet6-epha-api/wwwroot/AttachedFileTemp/HAZOP Study Worksheet Template.xlsx
@@ -14,12 +14,24 @@
   </bookViews>
   <sheets>
     <sheet name="WorksheetTemplate" sheetId="32" r:id="rId1"/>
+    <sheet name="HAZOP Worksheet Node (No.1)" sheetId="33" r:id="rId9"/>
+    <sheet name="HAZOP Worksheet Node (No.2)" sheetId="34" r:id="rId10"/>
+    <sheet name="HAZOP Worksheet No.1" sheetId="35" r:id="rId11"/>
+    <sheet name="HAZOP Worksheet No.2" sheetId="36" r:id="rId12"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="0">WorksheetTemplate!$A$1:$P$14</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">WorksheetTemplate!$1:$13</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="1">'HAZOP Worksheet Node (No.1)'!$A$1:$P$21</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="1">'HAZOP Worksheet Node (No.1)'!$1:$13</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="2">'HAZOP Worksheet Node (No.2)'!$A$1:$P$21</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="2">'HAZOP Worksheet Node (No.2)'!$1:$13</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="3">'HAZOP Worksheet No.1'!$A$1:$P$21</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="3">'HAZOP Worksheet No.1'!$1:$13</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="4">'HAZOP Worksheet No.2'!$A$1:$P$21</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="4">'HAZOP Worksheet No.2'!$1:$13</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="181029" fullCalcOnLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -29,9 +41,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="28">
-  <si>
-    <t>HAZOP STUDY  WORKSHEET</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="73">
+  <si>
+    <t xml:space="preserve">HAZOP STUDY  WORKSHEET</t>
   </si>
   <si>
     <t>Project:</t>
@@ -46,15 +58,15 @@
     <t>System</t>
   </si>
   <si>
-    <t>Design 
+    <t xml:space="preserve">Design 
 Conditions:</t>
   </si>
   <si>
-    <t>HAZOP 
+    <t xml:space="preserve">HAZOP 
 Boundary</t>
   </si>
   <si>
-    <t>Operating 
+    <t xml:space="preserve">Operating 
 Conditions:</t>
   </si>
   <si>
@@ -88,13 +100,16 @@
     <t>Existing Safeguards</t>
   </si>
   <si>
-    <t>Mitigated Risk Assessment
+    <t xml:space="preserve">Mitigated Risk Assessment
 Matrix</t>
   </si>
   <si>
     <t>Recommendations</t>
   </si>
   <si>
+    <t>Action No.</t>
+  </si>
+  <si>
     <t>Action by</t>
   </si>
   <si>
@@ -116,14 +131,147 @@
     <t xml:space="preserve">Note: </t>
   </si>
   <si>
-    <t>Action No.</t>
+    <t>t2</t>
+  </si>
+  <si>
+    <t>node1</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>d2</t>
+  </si>
+  <si>
+    <t>21 Aug 2023</t>
+  </si>
+  <si>
+    <t>Less/Low Flow</t>
+  </si>
+  <si>
+    <t>Less of</t>
+  </si>
+  <si>
+    <t>x1</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>H</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>ex1</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>r1</t>
+  </si>
+  <si>
+    <t>Dungrat (TOP-XX)</t>
+  </si>
+  <si>
+    <t>MisdirectedFlow</t>
+  </si>
+  <si>
+    <t>Misdirected</t>
+  </si>
+  <si>
+    <t>x2</t>
+  </si>
+  <si>
+    <t>c1</t>
+  </si>
+  <si>
+    <t>41</t>
+  </si>
+  <si>
+    <t>r2</t>
+  </si>
+  <si>
+    <t>More/HighFlow</t>
+  </si>
+  <si>
+    <t>More of</t>
+  </si>
+  <si>
+    <t>x3</t>
+  </si>
+  <si>
+    <t>c2</t>
+  </si>
+  <si>
+    <t>No Flow</t>
+  </si>
+  <si>
+    <t>None</t>
+  </si>
+  <si>
+    <t>x4</t>
+  </si>
+  <si>
+    <t>c3</t>
+  </si>
+  <si>
+    <t>Reverse Flow</t>
+  </si>
+  <si>
+    <t>Reverse</t>
+  </si>
+  <si>
+    <t>x5</t>
+  </si>
+  <si>
+    <t>c4</t>
+  </si>
+  <si>
+    <t>MLess/Low Pressure</t>
+  </si>
+  <si>
+    <t>x6</t>
+  </si>
+  <si>
+    <t>More/High Pressure</t>
+  </si>
+  <si>
+    <t>x7</t>
+  </si>
+  <si>
+    <t>node2</t>
+  </si>
+  <si>
+    <t>5400</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>TOP CMDP-Jaruwat P.</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>c5</t>
+  </si>
+  <si>
+    <t>c6</t>
+  </si>
+  <si>
+    <t>c7</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9" x14ac:knownFonts="1">
+  <numFmts count="0"/>
+  <fonts count="9">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -198,7 +346,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="17">
+  <borders count="18">
     <border>
       <left/>
       <right/>
@@ -390,195 +538,210 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="63">
+  <cellXfs count="67">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" applyFont="1" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" applyFont="1" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" applyNumberFormat="1" fontId="2" applyFont="1" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="centerContinuous" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" applyFont="1" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="centerContinuous"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" applyFont="1" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" applyNumberFormat="1" fontId="3" applyFont="1" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" applyFont="1" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" applyFont="1" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" applyFont="1" fillId="0" borderId="1" applyBorder="1" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" applyFont="1" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" applyFont="1" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" applyFont="1" fillId="0" borderId="1" applyBorder="1" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" applyNumberFormat="1" fontId="3" applyFont="1" fillId="0" borderId="1" applyBorder="1" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" applyFont="1" fillId="2" applyFill="1" borderId="7" applyBorder="1" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" applyFont="1" fillId="2" applyFill="1" borderId="1" applyBorder="1" xfId="0" applyAlignment="1">
       <alignment horizontal="centerContinuous" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" applyFont="1" fillId="2" applyFill="1" borderId="1" applyBorder="1" xfId="0" applyAlignment="1">
       <alignment horizontal="centerContinuous" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" applyFont="1" fillId="2" applyFill="1" borderId="1" applyBorder="1" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" applyFont="1" fillId="2" applyFill="1" borderId="3" applyBorder="1" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" applyFont="1" fillId="2" applyFill="1" borderId="1" applyBorder="1" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" applyNumberFormat="1" fontId="8" applyFont="1" fillId="0" borderId="1" applyBorder="1" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" applyFont="1" fillId="0" borderId="1" applyBorder="1" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" applyFont="1" fillId="2" applyFill="1" borderId="1" applyBorder="1" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" applyFont="1" fillId="2" applyFill="1" borderId="1" applyBorder="1" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" applyFont="1" fillId="2" applyFill="1" borderId="5" applyBorder="1" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" applyFont="1" fillId="2" applyFill="1" borderId="6" applyBorder="1" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" applyFont="1" fillId="2" applyFill="1" borderId="3" applyBorder="1" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" applyFont="1" fillId="2" applyFill="1" borderId="7" applyBorder="1" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" applyFont="1" fillId="2" applyFill="1" borderId="2" applyBorder="1" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" applyFont="1" fillId="0" borderId="5" applyBorder="1" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" applyFont="1" fillId="0" borderId="6" applyBorder="1" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" applyFont="1" fillId="0" borderId="3" applyBorder="1" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" applyFont="1" fillId="0" borderId="5" applyBorder="1" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" applyFont="1" fillId="0" borderId="6" applyBorder="1" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" applyFont="1" fillId="0" borderId="3" applyBorder="1" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" applyFont="1" fillId="0" borderId="9" applyBorder="1" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" applyFont="1" fillId="0" borderId="10" applyBorder="1" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" applyFont="1" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" applyFont="1" fillId="0" borderId="12" applyBorder="1" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" applyFont="1" fillId="0" borderId="14" applyBorder="1" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" applyFont="1" fillId="0" borderId="15" applyBorder="1" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" applyFont="1" fillId="0" borderId="6" applyBorder="1" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" applyFont="1" fillId="0" borderId="3" applyBorder="1" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" applyFont="1" fillId="0" borderId="8" applyBorder="1" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" applyFont="1" fillId="0" borderId="9" applyBorder="1" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" applyFont="1" fillId="0" borderId="10" applyBorder="1" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" applyFont="1" fillId="0" borderId="11" applyBorder="1" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" applyFont="1" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" applyFont="1" fillId="0" borderId="12" applyBorder="1" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" applyFont="1" fillId="0" borderId="13" applyBorder="1" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" applyFont="1" fillId="0" borderId="14" applyBorder="1" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" applyFont="1" fillId="0" borderId="15" applyBorder="1" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" applyFont="1" fillId="2" applyFill="1" borderId="16" applyBorder="1" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" applyFont="1" fillId="2" applyFill="1" borderId="4" applyBorder="1" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" applyFont="1" fillId="2" applyFill="1" borderId="16" applyBorder="1" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" applyFont="1" fillId="2" applyFill="1" borderId="4" applyBorder="1" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" applyFont="1" fillId="0" borderId="6" applyBorder="1" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" applyFont="1" fillId="0" borderId="3" applyBorder="1" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" applyNumberFormat="1" fontId="3" applyFont="1" fillId="0" borderId="1" applyBorder="1" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" applyNumberFormat="1" fontId="3" applyFont="1" fillId="0" borderId="1" applyBorder="1" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" applyFont="1" fillId="0" borderId="1" applyBorder="1" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" applyFont="1" fillId="0" borderId="1" applyBorder="1" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" applyFont="1" fillId="0" borderId="1" applyBorder="1" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" applyFont="1" fillId="0" borderId="17" applyBorder="1" xfId="0"/>
+    <xf numFmtId="0" fontId="1" applyFont="1" fillId="0" borderId="17" applyBorder="1" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" applyFont="1" fillId="0" borderId="17" applyBorder="1" xfId="0"/>
+    <xf numFmtId="0" fontId="1" applyFont="1" fillId="0" borderId="17" applyBorder="1" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -612,6 +775,322 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>235325</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>71747</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>1026511</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>152877</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 14" descr="C:\Users\Sirachachp\AppData\Local\Microsoft\Windows\Temporary Internet Files\Content.Outlook\MM9BOPGC\Thaioil Corporate Logo (002).png">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="16820031" y="71747"/>
+          <a:ext cx="791186" cy="305248"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing33.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>235325</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>71747</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>1026511</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>152877</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 14" descr="C:\Users\Sirachachp\AppData\Local\Microsoft\Windows\Temporary Internet Files\Content.Outlook\MM9BOPGC\Thaioil Corporate Logo (002).png">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="16820031" y="71747"/>
+          <a:ext cx="791186" cy="305248"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing34.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>235325</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>71747</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>1026511</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>152877</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 14" descr="C:\Users\Sirachachp\AppData\Local\Microsoft\Windows\Temporary Internet Files\Content.Outlook\MM9BOPGC\Thaioil Corporate Logo (002).png">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="16820031" y="71747"/>
+          <a:ext cx="791186" cy="305248"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing35.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>235325</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>71747</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>1026511</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>152877</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 14" descr="C:\Users\Sirachachp\AppData\Local\Microsoft\Windows\Temporary Internet Files\Content.Outlook\MM9BOPGC\Thaioil Corporate Logo (002).png">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="16820031" y="71747"/>
+          <a:ext cx="791186" cy="305248"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing36.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -961,21 +1440,21 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="16.44140625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="23" style="1" customWidth="1"/>
-    <col min="4" max="4" width="25.109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="9.44140625" style="1" customWidth="1"/>
-    <col min="6" max="8" width="4.5546875" style="8" customWidth="1"/>
-    <col min="9" max="9" width="7.6640625" style="8" customWidth="1"/>
-    <col min="10" max="10" width="32.109375" style="1" customWidth="1"/>
-    <col min="11" max="13" width="4.5546875" style="8" customWidth="1"/>
-    <col min="14" max="14" width="33" style="8" customWidth="1"/>
-    <col min="15" max="15" width="6.5546875" style="8" customWidth="1"/>
-    <col min="16" max="16" width="17.44140625" style="2" customWidth="1"/>
-    <col min="17" max="16384" width="9.109375" style="1"/>
+    <col min="1" max="2" width="16.44140625" customWidth="1" style="1"/>
+    <col min="3" max="3" width="23" customWidth="1" style="1"/>
+    <col min="4" max="4" width="25.109375" customWidth="1" style="1"/>
+    <col min="5" max="5" width="9.44140625" customWidth="1" style="1"/>
+    <col min="6" max="8" width="4.5546875" customWidth="1" style="8"/>
+    <col min="9" max="9" width="7.6640625" customWidth="1" style="8"/>
+    <col min="10" max="10" width="32.109375" customWidth="1" style="1"/>
+    <col min="11" max="13" width="4.5546875" customWidth="1" style="8"/>
+    <col min="14" max="14" width="33" customWidth="1" style="8"/>
+    <col min="15" max="15" width="6.5546875" customWidth="1" style="8"/>
+    <col min="16" max="16" width="17.44140625" customWidth="1" style="2"/>
+    <col min="17" max="16384" width="9.109375" customWidth="1" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" ht="18" customHeight="1">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -995,7 +1474,7 @@
       <c r="O1" s="4"/>
       <c r="P1" s="4"/>
     </row>
-    <row r="2" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" ht="18" customHeight="1">
       <c r="A2" s="4"/>
       <c r="B2" s="4"/>
       <c r="C2" s="4"/>
@@ -1012,7 +1491,7 @@
       <c r="N2" s="4"/>
       <c r="O2" s="4"/>
     </row>
-    <row r="3" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" ht="18" customHeight="1">
       <c r="A3" s="13" t="s">
         <v>1</v>
       </c>
@@ -1035,7 +1514,7 @@
       <c r="P3" s="57"/>
       <c r="Q3" s="2"/>
     </row>
-    <row r="4" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" ht="18" customHeight="1">
       <c r="A4" s="58" t="s">
         <v>3</v>
       </c>
@@ -1058,7 +1537,7 @@
       <c r="P4" s="36"/>
       <c r="Q4" s="2"/>
     </row>
-    <row r="5" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" ht="12.75" customHeight="1">
       <c r="A5" s="58"/>
       <c r="B5" s="60"/>
       <c r="C5" s="60"/>
@@ -1077,7 +1556,7 @@
       <c r="P5" s="40"/>
       <c r="Q5" s="2"/>
     </row>
-    <row r="6" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" ht="18" customHeight="1">
       <c r="A6" s="59" t="s">
         <v>5</v>
       </c>
@@ -1100,7 +1579,7 @@
       <c r="P6" s="36"/>
       <c r="Q6" s="2"/>
     </row>
-    <row r="7" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" ht="15" customHeight="1">
       <c r="A7" s="58"/>
       <c r="B7" s="60"/>
       <c r="C7" s="60"/>
@@ -1119,7 +1598,7 @@
       <c r="P7" s="38"/>
       <c r="Q7" s="2"/>
     </row>
-    <row r="8" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" ht="18" customHeight="1">
       <c r="A8" s="59" t="s">
         <v>7</v>
       </c>
@@ -1140,7 +1619,7 @@
       <c r="P8" s="38"/>
       <c r="Q8" s="2"/>
     </row>
-    <row r="9" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" ht="15" customHeight="1">
       <c r="A9" s="59"/>
       <c r="B9" s="60"/>
       <c r="C9" s="60"/>
@@ -1159,7 +1638,7 @@
       <c r="P9" s="40"/>
       <c r="Q9" s="2"/>
     </row>
-    <row r="10" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" ht="18" customHeight="1">
       <c r="A10" s="20" t="s">
         <v>8</v>
       </c>
@@ -1182,7 +1661,7 @@
       <c r="P10" s="42"/>
       <c r="Q10" s="2"/>
     </row>
-    <row r="11" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" ht="18" customHeight="1">
       <c r="A11" s="6"/>
       <c r="B11" s="11"/>
       <c r="C11" s="10"/>
@@ -1201,7 +1680,7 @@
       <c r="P11" s="5"/>
       <c r="Q11" s="2"/>
     </row>
-    <row r="12" spans="1:17" ht="39.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" ht="39.9" customHeight="1">
       <c r="A12" s="23" t="s">
         <v>10</v>
       </c>
@@ -1237,47 +1716,47 @@
         <v>19</v>
       </c>
       <c r="O12" s="54" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="P12" s="52" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="13">
       <c r="A13" s="23"/>
       <c r="B13" s="23"/>
       <c r="C13" s="23"/>
       <c r="D13" s="23"/>
       <c r="E13" s="22" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F13" s="17" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G13" s="17" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H13" s="17" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I13" s="17" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="J13" s="23"/>
       <c r="K13" s="18" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="L13" s="17" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="M13" s="17" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="N13" s="28"/>
       <c r="O13" s="55"/>
       <c r="P13" s="53"/>
     </row>
-    <row r="14" spans="1:17" s="7" customFormat="1" ht="24.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" ht="24.9" customHeight="1" s="7" customFormat="1">
       <c r="A14" s="9"/>
       <c r="B14" s="12"/>
       <c r="C14" s="12"/>
@@ -1295,13 +1774,13 @@
       <c r="O14" s="9"/>
       <c r="P14" s="9"/>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="15">
       <c r="A15" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="25">
+  <mergeCells>
     <mergeCell ref="N3:P3"/>
     <mergeCell ref="N4:P5"/>
     <mergeCell ref="A4:A5"/>
@@ -1335,11 +1814,2975 @@
   </conditionalFormatting>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0" right="0" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="5" scale="71" orientation="landscape" r:id="rId1"/>
+  <pageSetup paperSize="5" scale="71" orientation="landscape"/>
   <headerFooter>
     <oddFooter>&amp;L&amp;"Angsana New,Bold"&amp;12QMTS-SFR-24, Rev. 00, 17/08/22&amp;C&amp;"Angsana New,Bold"&amp;12Page &amp;P of &amp;N</oddFooter>
   </headerFooter>
   <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet33.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{10CC43C7-F4F2-4329-97D6-2CA60785CFDB}">
+  <dimension ref="A1:Q22"/>
+  <sheetViews>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="70" zoomScaleNormal="85" zoomScaleSheetLayoutView="70" workbookViewId="0">
+      <selection activeCell="E42" sqref="E42"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="2" width="16.44140625" customWidth="1" style="1"/>
+    <col min="3" max="3" width="23" customWidth="1" style="1"/>
+    <col min="4" max="4" width="25.109375" customWidth="1" style="1"/>
+    <col min="5" max="5" width="9.44140625" customWidth="1" style="1"/>
+    <col min="6" max="8" width="4.5546875" customWidth="1" style="8"/>
+    <col min="9" max="9" width="7.6640625" customWidth="1" style="8"/>
+    <col min="10" max="10" width="32.109375" customWidth="1" style="1"/>
+    <col min="11" max="13" width="4.5546875" customWidth="1" style="8"/>
+    <col min="14" max="14" width="33" customWidth="1" style="8"/>
+    <col min="15" max="15" width="6.5546875" customWidth="1" style="8"/>
+    <col min="16" max="16" width="17.44140625" customWidth="1" style="2"/>
+    <col min="17" max="16384" width="9.109375" customWidth="1" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="18" customHeight="1">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
+      <c r="F1" s="4"/>
+      <c r="G1" s="4"/>
+      <c r="H1" s="4"/>
+      <c r="I1" s="4"/>
+      <c r="J1" s="4"/>
+      <c r="K1" s="4"/>
+      <c r="L1" s="4"/>
+      <c r="M1" s="4"/>
+      <c r="N1" s="4"/>
+      <c r="O1" s="4"/>
+      <c r="P1" s="4"/>
+    </row>
+    <row r="2" ht="18" customHeight="1">
+      <c r="A2" s="4"/>
+      <c r="B2" s="4"/>
+      <c r="C2" s="4"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4"/>
+      <c r="G2" s="4"/>
+      <c r="H2" s="4"/>
+      <c r="I2" s="4"/>
+      <c r="J2" s="4"/>
+      <c r="K2" s="4"/>
+      <c r="L2" s="4"/>
+      <c r="M2" s="4"/>
+      <c r="N2" s="4"/>
+      <c r="O2" s="4"/>
+    </row>
+    <row r="3" ht="18" customHeight="1">
+      <c r="A3" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="62" t="s">
+        <v>28</v>
+      </c>
+      <c r="C3" s="62"/>
+      <c r="D3" s="62"/>
+      <c r="E3" s="62"/>
+      <c r="F3" s="62"/>
+      <c r="G3" s="62"/>
+      <c r="H3" s="62"/>
+      <c r="I3" s="62"/>
+      <c r="J3" s="62"/>
+      <c r="K3" s="61" t="s">
+        <v>2</v>
+      </c>
+      <c r="L3" s="61"/>
+      <c r="M3" s="61"/>
+      <c r="N3" s="56" t="s">
+        <v>29</v>
+      </c>
+      <c r="O3" s="56"/>
+      <c r="P3" s="57"/>
+      <c r="Q3" s="2"/>
+    </row>
+    <row r="4" ht="18" customHeight="1">
+      <c r="A4" s="58" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="60" t="s">
+        <v>30</v>
+      </c>
+      <c r="C4" s="60"/>
+      <c r="D4" s="60"/>
+      <c r="E4" s="60"/>
+      <c r="F4" s="60"/>
+      <c r="G4" s="60"/>
+      <c r="H4" s="60"/>
+      <c r="I4" s="60"/>
+      <c r="J4" s="60"/>
+      <c r="K4" s="43" t="s">
+        <v>4</v>
+      </c>
+      <c r="L4" s="44"/>
+      <c r="M4" s="45"/>
+      <c r="N4" s="35" t="s">
+        <v>30</v>
+      </c>
+      <c r="O4" s="35"/>
+      <c r="P4" s="36"/>
+      <c r="Q4" s="2"/>
+    </row>
+    <row r="5" ht="12.75" customHeight="1">
+      <c r="A5" s="58"/>
+      <c r="B5" s="60" t="s">
+        <v>30</v>
+      </c>
+      <c r="C5" s="60"/>
+      <c r="D5" s="60"/>
+      <c r="E5" s="60"/>
+      <c r="F5" s="60"/>
+      <c r="G5" s="60"/>
+      <c r="H5" s="60"/>
+      <c r="I5" s="60"/>
+      <c r="J5" s="60"/>
+      <c r="K5" s="49"/>
+      <c r="L5" s="50"/>
+      <c r="M5" s="51"/>
+      <c r="N5" s="39" t="s">
+        <v>30</v>
+      </c>
+      <c r="O5" s="39"/>
+      <c r="P5" s="40"/>
+      <c r="Q5" s="2"/>
+    </row>
+    <row r="6" ht="18" customHeight="1">
+      <c r="A6" s="59" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="60" t="s">
+        <v>30</v>
+      </c>
+      <c r="C6" s="60"/>
+      <c r="D6" s="60"/>
+      <c r="E6" s="60"/>
+      <c r="F6" s="60"/>
+      <c r="G6" s="60"/>
+      <c r="H6" s="60"/>
+      <c r="I6" s="60"/>
+      <c r="J6" s="60"/>
+      <c r="K6" s="43" t="s">
+        <v>6</v>
+      </c>
+      <c r="L6" s="44"/>
+      <c r="M6" s="45"/>
+      <c r="N6" s="35"/>
+      <c r="O6" s="35"/>
+      <c r="P6" s="36"/>
+      <c r="Q6" s="2"/>
+    </row>
+    <row r="7" ht="15" customHeight="1">
+      <c r="A7" s="58"/>
+      <c r="B7" s="60" t="s">
+        <v>31</v>
+      </c>
+      <c r="C7" s="60"/>
+      <c r="D7" s="60"/>
+      <c r="E7" s="60"/>
+      <c r="F7" s="60"/>
+      <c r="G7" s="60"/>
+      <c r="H7" s="60"/>
+      <c r="I7" s="60"/>
+      <c r="J7" s="60"/>
+      <c r="K7" s="46"/>
+      <c r="L7" s="47"/>
+      <c r="M7" s="48"/>
+      <c r="N7" s="37" t="s">
+        <v>32</v>
+      </c>
+      <c r="O7" s="37"/>
+      <c r="P7" s="38"/>
+      <c r="Q7" s="2"/>
+    </row>
+    <row r="8" ht="18" customHeight="1">
+      <c r="A8" s="59" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" s="60"/>
+      <c r="C8" s="60"/>
+      <c r="D8" s="60"/>
+      <c r="E8" s="60"/>
+      <c r="F8" s="60"/>
+      <c r="G8" s="60"/>
+      <c r="H8" s="60"/>
+      <c r="I8" s="60"/>
+      <c r="J8" s="60"/>
+      <c r="K8" s="46"/>
+      <c r="L8" s="47"/>
+      <c r="M8" s="48"/>
+      <c r="N8" s="37"/>
+      <c r="O8" s="37"/>
+      <c r="P8" s="38"/>
+      <c r="Q8" s="2"/>
+    </row>
+    <row r="9" ht="15" customHeight="1">
+      <c r="A9" s="59"/>
+      <c r="B9" s="60"/>
+      <c r="C9" s="60"/>
+      <c r="D9" s="60"/>
+      <c r="E9" s="60"/>
+      <c r="F9" s="60"/>
+      <c r="G9" s="60"/>
+      <c r="H9" s="60"/>
+      <c r="I9" s="60"/>
+      <c r="J9" s="60"/>
+      <c r="K9" s="49"/>
+      <c r="L9" s="50"/>
+      <c r="M9" s="51"/>
+      <c r="N9" s="39"/>
+      <c r="O9" s="39"/>
+      <c r="P9" s="40"/>
+      <c r="Q9" s="2"/>
+    </row>
+    <row r="10" ht="18" customHeight="1">
+      <c r="A10" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10" s="32"/>
+      <c r="C10" s="33"/>
+      <c r="D10" s="33"/>
+      <c r="E10" s="33"/>
+      <c r="F10" s="33"/>
+      <c r="G10" s="33"/>
+      <c r="H10" s="33"/>
+      <c r="I10" s="33"/>
+      <c r="J10" s="34"/>
+      <c r="K10" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="L10" s="30"/>
+      <c r="M10" s="31"/>
+      <c r="N10" s="41"/>
+      <c r="O10" s="41"/>
+      <c r="P10" s="42"/>
+      <c r="Q10" s="2"/>
+    </row>
+    <row r="11" ht="18" customHeight="1">
+      <c r="A11" s="6"/>
+      <c r="B11" s="11"/>
+      <c r="C11" s="10"/>
+      <c r="D11" s="10"/>
+      <c r="E11" s="10"/>
+      <c r="F11" s="10"/>
+      <c r="G11" s="5"/>
+      <c r="H11" s="5"/>
+      <c r="I11" s="5"/>
+      <c r="J11" s="10"/>
+      <c r="K11" s="10"/>
+      <c r="L11" s="5"/>
+      <c r="M11" s="5"/>
+      <c r="N11" s="5"/>
+      <c r="O11" s="5"/>
+      <c r="P11" s="5"/>
+      <c r="Q11" s="2"/>
+    </row>
+    <row r="12" ht="39.9" customHeight="1">
+      <c r="A12" s="23" t="s">
+        <v>10</v>
+      </c>
+      <c r="B12" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="C12" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="D12" s="23" t="s">
+        <v>13</v>
+      </c>
+      <c r="E12" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="F12" s="24" t="s">
+        <v>15</v>
+      </c>
+      <c r="G12" s="25"/>
+      <c r="H12" s="26"/>
+      <c r="I12" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="J12" s="23" t="s">
+        <v>17</v>
+      </c>
+      <c r="K12" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="L12" s="16"/>
+      <c r="M12" s="16"/>
+      <c r="N12" s="27" t="s">
+        <v>19</v>
+      </c>
+      <c r="O12" s="54" t="s">
+        <v>20</v>
+      </c>
+      <c r="P12" s="52" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="23"/>
+      <c r="B13" s="23"/>
+      <c r="C13" s="23"/>
+      <c r="D13" s="23"/>
+      <c r="E13" s="22" t="s">
+        <v>22</v>
+      </c>
+      <c r="F13" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="G13" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="H13" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="I13" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="J13" s="23"/>
+      <c r="K13" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="L13" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="M13" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="N13" s="28"/>
+      <c r="O13" s="55"/>
+      <c r="P13" s="53"/>
+    </row>
+    <row r="14">
+      <c r="A14" s="63" t="s">
+        <v>33</v>
+      </c>
+      <c r="B14" s="63" t="s">
+        <v>34</v>
+      </c>
+      <c r="C14" s="63" t="s">
+        <v>35</v>
+      </c>
+      <c r="D14" s="63" t="s">
+        <v>30</v>
+      </c>
+      <c r="E14" s="63" t="s">
+        <v>30</v>
+      </c>
+      <c r="F14" s="64" t="s">
+        <v>36</v>
+      </c>
+      <c r="G14" s="64" t="s">
+        <v>36</v>
+      </c>
+      <c r="H14" s="64" t="s">
+        <v>37</v>
+      </c>
+      <c r="I14" s="64" t="s">
+        <v>38</v>
+      </c>
+      <c r="J14" s="63" t="s">
+        <v>39</v>
+      </c>
+      <c r="K14" s="64" t="s">
+        <v>36</v>
+      </c>
+      <c r="L14" s="64" t="s">
+        <v>40</v>
+      </c>
+      <c r="M14" s="64" t="s">
+        <v>37</v>
+      </c>
+      <c r="N14" s="64" t="s">
+        <v>41</v>
+      </c>
+      <c r="O14" s="64" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="63" t="s">
+        <v>43</v>
+      </c>
+      <c r="B15" s="63" t="s">
+        <v>44</v>
+      </c>
+      <c r="C15" s="63" t="s">
+        <v>45</v>
+      </c>
+      <c r="D15" s="63" t="s">
+        <v>46</v>
+      </c>
+      <c r="E15" s="63" t="s">
+        <v>30</v>
+      </c>
+      <c r="F15" s="64" t="s">
+        <v>30</v>
+      </c>
+      <c r="G15" s="64" t="s">
+        <v>30</v>
+      </c>
+      <c r="H15" s="64" t="s">
+        <v>30</v>
+      </c>
+      <c r="I15" s="64" t="s">
+        <v>30</v>
+      </c>
+      <c r="J15" s="63" t="s">
+        <v>47</v>
+      </c>
+      <c r="K15" s="64" t="s">
+        <v>30</v>
+      </c>
+      <c r="L15" s="64" t="s">
+        <v>30</v>
+      </c>
+      <c r="M15" s="64" t="s">
+        <v>30</v>
+      </c>
+      <c r="N15" s="64" t="s">
+        <v>48</v>
+      </c>
+      <c r="O15" s="64" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="63" t="s">
+        <v>49</v>
+      </c>
+      <c r="B16" s="63" t="s">
+        <v>50</v>
+      </c>
+      <c r="C16" s="63" t="s">
+        <v>51</v>
+      </c>
+      <c r="D16" s="63" t="s">
+        <v>52</v>
+      </c>
+      <c r="E16" s="63" t="s">
+        <v>30</v>
+      </c>
+      <c r="F16" s="64" t="s">
+        <v>30</v>
+      </c>
+      <c r="G16" s="64" t="s">
+        <v>30</v>
+      </c>
+      <c r="H16" s="64" t="s">
+        <v>30</v>
+      </c>
+      <c r="I16" s="64" t="s">
+        <v>30</v>
+      </c>
+      <c r="J16" s="63" t="s">
+        <v>30</v>
+      </c>
+      <c r="K16" s="64" t="s">
+        <v>30</v>
+      </c>
+      <c r="L16" s="64" t="s">
+        <v>30</v>
+      </c>
+      <c r="M16" s="64" t="s">
+        <v>30</v>
+      </c>
+      <c r="N16" s="64" t="s">
+        <v>30</v>
+      </c>
+      <c r="O16" s="64" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="63" t="s">
+        <v>53</v>
+      </c>
+      <c r="B17" s="63" t="s">
+        <v>54</v>
+      </c>
+      <c r="C17" s="63" t="s">
+        <v>55</v>
+      </c>
+      <c r="D17" s="63" t="s">
+        <v>56</v>
+      </c>
+      <c r="E17" s="63" t="s">
+        <v>30</v>
+      </c>
+      <c r="F17" s="64" t="s">
+        <v>30</v>
+      </c>
+      <c r="G17" s="64" t="s">
+        <v>30</v>
+      </c>
+      <c r="H17" s="64" t="s">
+        <v>30</v>
+      </c>
+      <c r="I17" s="64" t="s">
+        <v>30</v>
+      </c>
+      <c r="J17" s="63" t="s">
+        <v>30</v>
+      </c>
+      <c r="K17" s="64" t="s">
+        <v>30</v>
+      </c>
+      <c r="L17" s="64" t="s">
+        <v>30</v>
+      </c>
+      <c r="M17" s="64" t="s">
+        <v>30</v>
+      </c>
+      <c r="N17" s="64" t="s">
+        <v>30</v>
+      </c>
+      <c r="O17" s="64" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="63" t="s">
+        <v>57</v>
+      </c>
+      <c r="B18" s="63" t="s">
+        <v>58</v>
+      </c>
+      <c r="C18" s="63" t="s">
+        <v>59</v>
+      </c>
+      <c r="D18" s="63" t="s">
+        <v>60</v>
+      </c>
+      <c r="E18" s="63" t="s">
+        <v>30</v>
+      </c>
+      <c r="F18" s="64" t="s">
+        <v>30</v>
+      </c>
+      <c r="G18" s="64" t="s">
+        <v>30</v>
+      </c>
+      <c r="H18" s="64" t="s">
+        <v>30</v>
+      </c>
+      <c r="I18" s="64" t="s">
+        <v>30</v>
+      </c>
+      <c r="J18" s="63" t="s">
+        <v>30</v>
+      </c>
+      <c r="K18" s="64" t="s">
+        <v>30</v>
+      </c>
+      <c r="L18" s="64" t="s">
+        <v>30</v>
+      </c>
+      <c r="M18" s="64" t="s">
+        <v>30</v>
+      </c>
+      <c r="N18" s="64" t="s">
+        <v>30</v>
+      </c>
+      <c r="O18" s="64" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="63" t="s">
+        <v>61</v>
+      </c>
+      <c r="B19" s="63" t="s">
+        <v>34</v>
+      </c>
+      <c r="C19" s="63" t="s">
+        <v>62</v>
+      </c>
+      <c r="D19" s="63" t="s">
+        <v>30</v>
+      </c>
+      <c r="E19" s="63" t="s">
+        <v>30</v>
+      </c>
+      <c r="F19" s="64" t="s">
+        <v>30</v>
+      </c>
+      <c r="G19" s="64" t="s">
+        <v>30</v>
+      </c>
+      <c r="H19" s="64" t="s">
+        <v>30</v>
+      </c>
+      <c r="I19" s="64" t="s">
+        <v>30</v>
+      </c>
+      <c r="J19" s="63" t="s">
+        <v>30</v>
+      </c>
+      <c r="K19" s="64" t="s">
+        <v>30</v>
+      </c>
+      <c r="L19" s="64" t="s">
+        <v>30</v>
+      </c>
+      <c r="M19" s="64" t="s">
+        <v>30</v>
+      </c>
+      <c r="N19" s="64" t="s">
+        <v>30</v>
+      </c>
+      <c r="O19" s="64" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="63" t="s">
+        <v>63</v>
+      </c>
+      <c r="B20" s="63" t="s">
+        <v>50</v>
+      </c>
+      <c r="C20" s="63" t="s">
+        <v>64</v>
+      </c>
+      <c r="D20" s="63" t="s">
+        <v>30</v>
+      </c>
+      <c r="E20" s="63" t="s">
+        <v>30</v>
+      </c>
+      <c r="F20" s="64" t="s">
+        <v>30</v>
+      </c>
+      <c r="G20" s="64" t="s">
+        <v>30</v>
+      </c>
+      <c r="H20" s="64" t="s">
+        <v>30</v>
+      </c>
+      <c r="I20" s="64" t="s">
+        <v>30</v>
+      </c>
+      <c r="J20" s="63" t="s">
+        <v>30</v>
+      </c>
+      <c r="K20" s="64" t="s">
+        <v>30</v>
+      </c>
+      <c r="L20" s="64" t="s">
+        <v>30</v>
+      </c>
+      <c r="M20" s="64" t="s">
+        <v>30</v>
+      </c>
+      <c r="N20" s="64" t="s">
+        <v>30</v>
+      </c>
+      <c r="O20" s="64" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="21" ht="24.9" customHeight="1">
+      <c r="A21" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="B21" s="12"/>
+      <c r="C21" s="12"/>
+      <c r="D21" s="9"/>
+      <c r="E21" s="21"/>
+      <c r="F21" s="21"/>
+      <c r="G21" s="21"/>
+      <c r="H21" s="21"/>
+      <c r="I21" s="21"/>
+      <c r="J21" s="9"/>
+      <c r="K21" s="21"/>
+      <c r="L21" s="21"/>
+      <c r="M21" s="21"/>
+      <c r="N21" s="9"/>
+      <c r="O21" s="9"/>
+      <c r="P21" s="9"/>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells>
+    <mergeCell ref="N3:P3"/>
+    <mergeCell ref="N4:P5"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="B6:J7"/>
+    <mergeCell ref="B8:J9"/>
+    <mergeCell ref="K3:M3"/>
+    <mergeCell ref="K4:M5"/>
+    <mergeCell ref="B4:J5"/>
+    <mergeCell ref="B3:J3"/>
+    <mergeCell ref="N12:N13"/>
+    <mergeCell ref="K10:M10"/>
+    <mergeCell ref="B10:J10"/>
+    <mergeCell ref="N6:P9"/>
+    <mergeCell ref="N10:P10"/>
+    <mergeCell ref="K6:M9"/>
+    <mergeCell ref="J12:J13"/>
+    <mergeCell ref="P12:P13"/>
+    <mergeCell ref="O12:O13"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="B12:B13"/>
+    <mergeCell ref="C12:C13"/>
+    <mergeCell ref="D12:D13"/>
+    <mergeCell ref="F12:H12"/>
+  </mergeCells>
+  <conditionalFormatting sqref="H21:I21 M21">
+    <cfRule type="cellIs" dxfId="0" priority="20" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <printOptions horizontalCentered="1"/>
+  <pageMargins left="0" right="0" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="5" scale="71" orientation="landscape"/>
+  <headerFooter>
+    <oddFooter>&amp;L&amp;"Angsana New,Bold"&amp;12QMTS-SFR-24, Rev. 00, 17/08/22&amp;C&amp;"Angsana New,Bold"&amp;12Page &amp;P of &amp;N</oddFooter>
+  </headerFooter>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet34.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F2591F27-6689-498D-8ACF-7DB90628490E}">
+  <dimension ref="A1:Q22"/>
+  <sheetViews>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="70" zoomScaleNormal="85" zoomScaleSheetLayoutView="70" workbookViewId="0">
+      <selection activeCell="E42" sqref="E42"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="2" width="16.44140625" customWidth="1" style="1"/>
+    <col min="3" max="3" width="23" customWidth="1" style="1"/>
+    <col min="4" max="4" width="25.109375" customWidth="1" style="1"/>
+    <col min="5" max="5" width="9.44140625" customWidth="1" style="1"/>
+    <col min="6" max="8" width="4.5546875" customWidth="1" style="8"/>
+    <col min="9" max="9" width="7.6640625" customWidth="1" style="8"/>
+    <col min="10" max="10" width="32.109375" customWidth="1" style="1"/>
+    <col min="11" max="13" width="4.5546875" customWidth="1" style="8"/>
+    <col min="14" max="14" width="33" customWidth="1" style="8"/>
+    <col min="15" max="15" width="6.5546875" customWidth="1" style="8"/>
+    <col min="16" max="16" width="17.44140625" customWidth="1" style="2"/>
+    <col min="17" max="16384" width="9.109375" customWidth="1" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="18" customHeight="1">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
+      <c r="F1" s="4"/>
+      <c r="G1" s="4"/>
+      <c r="H1" s="4"/>
+      <c r="I1" s="4"/>
+      <c r="J1" s="4"/>
+      <c r="K1" s="4"/>
+      <c r="L1" s="4"/>
+      <c r="M1" s="4"/>
+      <c r="N1" s="4"/>
+      <c r="O1" s="4"/>
+      <c r="P1" s="4"/>
+    </row>
+    <row r="2" ht="18" customHeight="1">
+      <c r="A2" s="4"/>
+      <c r="B2" s="4"/>
+      <c r="C2" s="4"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4"/>
+      <c r="G2" s="4"/>
+      <c r="H2" s="4"/>
+      <c r="I2" s="4"/>
+      <c r="J2" s="4"/>
+      <c r="K2" s="4"/>
+      <c r="L2" s="4"/>
+      <c r="M2" s="4"/>
+      <c r="N2" s="4"/>
+      <c r="O2" s="4"/>
+    </row>
+    <row r="3" ht="18" customHeight="1">
+      <c r="A3" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="62" t="s">
+        <v>28</v>
+      </c>
+      <c r="C3" s="62"/>
+      <c r="D3" s="62"/>
+      <c r="E3" s="62"/>
+      <c r="F3" s="62"/>
+      <c r="G3" s="62"/>
+      <c r="H3" s="62"/>
+      <c r="I3" s="62"/>
+      <c r="J3" s="62"/>
+      <c r="K3" s="61" t="s">
+        <v>2</v>
+      </c>
+      <c r="L3" s="61"/>
+      <c r="M3" s="61"/>
+      <c r="N3" s="56" t="s">
+        <v>65</v>
+      </c>
+      <c r="O3" s="56"/>
+      <c r="P3" s="57"/>
+      <c r="Q3" s="2"/>
+    </row>
+    <row r="4" ht="18" customHeight="1">
+      <c r="A4" s="58" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="60" t="s">
+        <v>30</v>
+      </c>
+      <c r="C4" s="60"/>
+      <c r="D4" s="60"/>
+      <c r="E4" s="60"/>
+      <c r="F4" s="60"/>
+      <c r="G4" s="60"/>
+      <c r="H4" s="60"/>
+      <c r="I4" s="60"/>
+      <c r="J4" s="60"/>
+      <c r="K4" s="43" t="s">
+        <v>4</v>
+      </c>
+      <c r="L4" s="44"/>
+      <c r="M4" s="45"/>
+      <c r="N4" s="35" t="s">
+        <v>30</v>
+      </c>
+      <c r="O4" s="35"/>
+      <c r="P4" s="36"/>
+      <c r="Q4" s="2"/>
+    </row>
+    <row r="5" ht="12.75" customHeight="1">
+      <c r="A5" s="58"/>
+      <c r="B5" s="60" t="s">
+        <v>30</v>
+      </c>
+      <c r="C5" s="60"/>
+      <c r="D5" s="60"/>
+      <c r="E5" s="60"/>
+      <c r="F5" s="60"/>
+      <c r="G5" s="60"/>
+      <c r="H5" s="60"/>
+      <c r="I5" s="60"/>
+      <c r="J5" s="60"/>
+      <c r="K5" s="49"/>
+      <c r="L5" s="50"/>
+      <c r="M5" s="51"/>
+      <c r="N5" s="39" t="s">
+        <v>30</v>
+      </c>
+      <c r="O5" s="39"/>
+      <c r="P5" s="40"/>
+      <c r="Q5" s="2"/>
+    </row>
+    <row r="6" ht="18" customHeight="1">
+      <c r="A6" s="59" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="60" t="s">
+        <v>30</v>
+      </c>
+      <c r="C6" s="60"/>
+      <c r="D6" s="60"/>
+      <c r="E6" s="60"/>
+      <c r="F6" s="60"/>
+      <c r="G6" s="60"/>
+      <c r="H6" s="60"/>
+      <c r="I6" s="60"/>
+      <c r="J6" s="60"/>
+      <c r="K6" s="43" t="s">
+        <v>6</v>
+      </c>
+      <c r="L6" s="44"/>
+      <c r="M6" s="45"/>
+      <c r="N6" s="35"/>
+      <c r="O6" s="35"/>
+      <c r="P6" s="36"/>
+      <c r="Q6" s="2"/>
+    </row>
+    <row r="7" ht="15" customHeight="1">
+      <c r="A7" s="58"/>
+      <c r="B7" s="60" t="s">
+        <v>31</v>
+      </c>
+      <c r="C7" s="60"/>
+      <c r="D7" s="60"/>
+      <c r="E7" s="60"/>
+      <c r="F7" s="60"/>
+      <c r="G7" s="60"/>
+      <c r="H7" s="60"/>
+      <c r="I7" s="60"/>
+      <c r="J7" s="60"/>
+      <c r="K7" s="46"/>
+      <c r="L7" s="47"/>
+      <c r="M7" s="48"/>
+      <c r="N7" s="37" t="s">
+        <v>32</v>
+      </c>
+      <c r="O7" s="37"/>
+      <c r="P7" s="38"/>
+      <c r="Q7" s="2"/>
+    </row>
+    <row r="8" ht="18" customHeight="1">
+      <c r="A8" s="59" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" s="60"/>
+      <c r="C8" s="60"/>
+      <c r="D8" s="60"/>
+      <c r="E8" s="60"/>
+      <c r="F8" s="60"/>
+      <c r="G8" s="60"/>
+      <c r="H8" s="60"/>
+      <c r="I8" s="60"/>
+      <c r="J8" s="60"/>
+      <c r="K8" s="46"/>
+      <c r="L8" s="47"/>
+      <c r="M8" s="48"/>
+      <c r="N8" s="37"/>
+      <c r="O8" s="37"/>
+      <c r="P8" s="38"/>
+      <c r="Q8" s="2"/>
+    </row>
+    <row r="9" ht="15" customHeight="1">
+      <c r="A9" s="59"/>
+      <c r="B9" s="60"/>
+      <c r="C9" s="60"/>
+      <c r="D9" s="60"/>
+      <c r="E9" s="60"/>
+      <c r="F9" s="60"/>
+      <c r="G9" s="60"/>
+      <c r="H9" s="60"/>
+      <c r="I9" s="60"/>
+      <c r="J9" s="60"/>
+      <c r="K9" s="49"/>
+      <c r="L9" s="50"/>
+      <c r="M9" s="51"/>
+      <c r="N9" s="39"/>
+      <c r="O9" s="39"/>
+      <c r="P9" s="40"/>
+      <c r="Q9" s="2"/>
+    </row>
+    <row r="10" ht="18" customHeight="1">
+      <c r="A10" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10" s="32"/>
+      <c r="C10" s="33"/>
+      <c r="D10" s="33"/>
+      <c r="E10" s="33"/>
+      <c r="F10" s="33"/>
+      <c r="G10" s="33"/>
+      <c r="H10" s="33"/>
+      <c r="I10" s="33"/>
+      <c r="J10" s="34"/>
+      <c r="K10" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="L10" s="30"/>
+      <c r="M10" s="31"/>
+      <c r="N10" s="41"/>
+      <c r="O10" s="41"/>
+      <c r="P10" s="42"/>
+      <c r="Q10" s="2"/>
+    </row>
+    <row r="11" ht="18" customHeight="1">
+      <c r="A11" s="6"/>
+      <c r="B11" s="11"/>
+      <c r="C11" s="10"/>
+      <c r="D11" s="10"/>
+      <c r="E11" s="10"/>
+      <c r="F11" s="10"/>
+      <c r="G11" s="5"/>
+      <c r="H11" s="5"/>
+      <c r="I11" s="5"/>
+      <c r="J11" s="10"/>
+      <c r="K11" s="10"/>
+      <c r="L11" s="5"/>
+      <c r="M11" s="5"/>
+      <c r="N11" s="5"/>
+      <c r="O11" s="5"/>
+      <c r="P11" s="5"/>
+      <c r="Q11" s="2"/>
+    </row>
+    <row r="12" ht="39.9" customHeight="1">
+      <c r="A12" s="23" t="s">
+        <v>10</v>
+      </c>
+      <c r="B12" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="C12" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="D12" s="23" t="s">
+        <v>13</v>
+      </c>
+      <c r="E12" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="F12" s="24" t="s">
+        <v>15</v>
+      </c>
+      <c r="G12" s="25"/>
+      <c r="H12" s="26"/>
+      <c r="I12" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="J12" s="23" t="s">
+        <v>17</v>
+      </c>
+      <c r="K12" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="L12" s="16"/>
+      <c r="M12" s="16"/>
+      <c r="N12" s="27" t="s">
+        <v>19</v>
+      </c>
+      <c r="O12" s="54" t="s">
+        <v>20</v>
+      </c>
+      <c r="P12" s="52" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="23"/>
+      <c r="B13" s="23"/>
+      <c r="C13" s="23"/>
+      <c r="D13" s="23"/>
+      <c r="E13" s="22" t="s">
+        <v>22</v>
+      </c>
+      <c r="F13" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="G13" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="H13" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="I13" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="J13" s="23"/>
+      <c r="K13" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="L13" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="M13" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="N13" s="28"/>
+      <c r="O13" s="55"/>
+      <c r="P13" s="53"/>
+    </row>
+    <row r="14">
+      <c r="A14" s="63" t="s">
+        <v>33</v>
+      </c>
+      <c r="B14" s="63" t="s">
+        <v>34</v>
+      </c>
+      <c r="C14" s="63" t="s">
+        <v>46</v>
+      </c>
+      <c r="D14" s="63" t="s">
+        <v>30</v>
+      </c>
+      <c r="E14" s="63" t="s">
+        <v>30</v>
+      </c>
+      <c r="F14" s="64" t="s">
+        <v>36</v>
+      </c>
+      <c r="G14" s="64" t="s">
+        <v>40</v>
+      </c>
+      <c r="H14" s="64" t="s">
+        <v>37</v>
+      </c>
+      <c r="I14" s="64" t="s">
+        <v>30</v>
+      </c>
+      <c r="J14" s="63" t="s">
+        <v>66</v>
+      </c>
+      <c r="K14" s="64" t="s">
+        <v>40</v>
+      </c>
+      <c r="L14" s="64" t="s">
+        <v>40</v>
+      </c>
+      <c r="M14" s="64" t="s">
+        <v>67</v>
+      </c>
+      <c r="N14" s="64" t="s">
+        <v>41</v>
+      </c>
+      <c r="O14" s="64" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="63" t="s">
+        <v>43</v>
+      </c>
+      <c r="B15" s="63" t="s">
+        <v>44</v>
+      </c>
+      <c r="C15" s="63" t="s">
+        <v>52</v>
+      </c>
+      <c r="D15" s="63" t="s">
+        <v>30</v>
+      </c>
+      <c r="E15" s="63" t="s">
+        <v>30</v>
+      </c>
+      <c r="F15" s="64" t="s">
+        <v>36</v>
+      </c>
+      <c r="G15" s="64" t="s">
+        <v>69</v>
+      </c>
+      <c r="H15" s="64" t="s">
+        <v>67</v>
+      </c>
+      <c r="I15" s="64" t="s">
+        <v>30</v>
+      </c>
+      <c r="J15" s="63" t="s">
+        <v>66</v>
+      </c>
+      <c r="K15" s="64" t="s">
+        <v>40</v>
+      </c>
+      <c r="L15" s="64" t="s">
+        <v>69</v>
+      </c>
+      <c r="M15" s="64" t="s">
+        <v>24</v>
+      </c>
+      <c r="N15" s="64" t="s">
+        <v>48</v>
+      </c>
+      <c r="O15" s="64" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="63" t="s">
+        <v>49</v>
+      </c>
+      <c r="B16" s="63" t="s">
+        <v>50</v>
+      </c>
+      <c r="C16" s="63" t="s">
+        <v>56</v>
+      </c>
+      <c r="D16" s="63" t="s">
+        <v>30</v>
+      </c>
+      <c r="E16" s="63" t="s">
+        <v>30</v>
+      </c>
+      <c r="F16" s="64" t="s">
+        <v>30</v>
+      </c>
+      <c r="G16" s="64" t="s">
+        <v>30</v>
+      </c>
+      <c r="H16" s="64" t="s">
+        <v>30</v>
+      </c>
+      <c r="I16" s="64" t="s">
+        <v>30</v>
+      </c>
+      <c r="J16" s="63" t="s">
+        <v>30</v>
+      </c>
+      <c r="K16" s="64" t="s">
+        <v>30</v>
+      </c>
+      <c r="L16" s="64" t="s">
+        <v>30</v>
+      </c>
+      <c r="M16" s="64" t="s">
+        <v>30</v>
+      </c>
+      <c r="N16" s="64" t="s">
+        <v>30</v>
+      </c>
+      <c r="O16" s="64" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="63" t="s">
+        <v>53</v>
+      </c>
+      <c r="B17" s="63" t="s">
+        <v>54</v>
+      </c>
+      <c r="C17" s="63" t="s">
+        <v>60</v>
+      </c>
+      <c r="D17" s="63" t="s">
+        <v>30</v>
+      </c>
+      <c r="E17" s="63" t="s">
+        <v>30</v>
+      </c>
+      <c r="F17" s="64" t="s">
+        <v>30</v>
+      </c>
+      <c r="G17" s="64" t="s">
+        <v>30</v>
+      </c>
+      <c r="H17" s="64" t="s">
+        <v>30</v>
+      </c>
+      <c r="I17" s="64" t="s">
+        <v>30</v>
+      </c>
+      <c r="J17" s="63" t="s">
+        <v>30</v>
+      </c>
+      <c r="K17" s="64" t="s">
+        <v>30</v>
+      </c>
+      <c r="L17" s="64" t="s">
+        <v>30</v>
+      </c>
+      <c r="M17" s="64" t="s">
+        <v>30</v>
+      </c>
+      <c r="N17" s="64" t="s">
+        <v>30</v>
+      </c>
+      <c r="O17" s="64" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="63" t="s">
+        <v>57</v>
+      </c>
+      <c r="B18" s="63" t="s">
+        <v>58</v>
+      </c>
+      <c r="C18" s="63" t="s">
+        <v>70</v>
+      </c>
+      <c r="D18" s="63" t="s">
+        <v>30</v>
+      </c>
+      <c r="E18" s="63" t="s">
+        <v>30</v>
+      </c>
+      <c r="F18" s="64" t="s">
+        <v>30</v>
+      </c>
+      <c r="G18" s="64" t="s">
+        <v>30</v>
+      </c>
+      <c r="H18" s="64" t="s">
+        <v>30</v>
+      </c>
+      <c r="I18" s="64" t="s">
+        <v>30</v>
+      </c>
+      <c r="J18" s="63" t="s">
+        <v>30</v>
+      </c>
+      <c r="K18" s="64" t="s">
+        <v>30</v>
+      </c>
+      <c r="L18" s="64" t="s">
+        <v>30</v>
+      </c>
+      <c r="M18" s="64" t="s">
+        <v>30</v>
+      </c>
+      <c r="N18" s="64" t="s">
+        <v>30</v>
+      </c>
+      <c r="O18" s="64" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="63" t="s">
+        <v>61</v>
+      </c>
+      <c r="B19" s="63" t="s">
+        <v>34</v>
+      </c>
+      <c r="C19" s="63" t="s">
+        <v>71</v>
+      </c>
+      <c r="D19" s="63" t="s">
+        <v>30</v>
+      </c>
+      <c r="E19" s="63" t="s">
+        <v>30</v>
+      </c>
+      <c r="F19" s="64" t="s">
+        <v>30</v>
+      </c>
+      <c r="G19" s="64" t="s">
+        <v>30</v>
+      </c>
+      <c r="H19" s="64" t="s">
+        <v>30</v>
+      </c>
+      <c r="I19" s="64" t="s">
+        <v>30</v>
+      </c>
+      <c r="J19" s="63" t="s">
+        <v>30</v>
+      </c>
+      <c r="K19" s="64" t="s">
+        <v>30</v>
+      </c>
+      <c r="L19" s="64" t="s">
+        <v>30</v>
+      </c>
+      <c r="M19" s="64" t="s">
+        <v>30</v>
+      </c>
+      <c r="N19" s="64" t="s">
+        <v>30</v>
+      </c>
+      <c r="O19" s="64" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="63" t="s">
+        <v>63</v>
+      </c>
+      <c r="B20" s="63" t="s">
+        <v>50</v>
+      </c>
+      <c r="C20" s="63" t="s">
+        <v>72</v>
+      </c>
+      <c r="D20" s="63" t="s">
+        <v>30</v>
+      </c>
+      <c r="E20" s="63" t="s">
+        <v>30</v>
+      </c>
+      <c r="F20" s="64" t="s">
+        <v>30</v>
+      </c>
+      <c r="G20" s="64" t="s">
+        <v>30</v>
+      </c>
+      <c r="H20" s="64" t="s">
+        <v>30</v>
+      </c>
+      <c r="I20" s="64" t="s">
+        <v>30</v>
+      </c>
+      <c r="J20" s="63" t="s">
+        <v>30</v>
+      </c>
+      <c r="K20" s="64" t="s">
+        <v>30</v>
+      </c>
+      <c r="L20" s="64" t="s">
+        <v>30</v>
+      </c>
+      <c r="M20" s="64" t="s">
+        <v>30</v>
+      </c>
+      <c r="N20" s="64" t="s">
+        <v>30</v>
+      </c>
+      <c r="O20" s="64" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="21" ht="24.9" customHeight="1">
+      <c r="A21" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="B21" s="12"/>
+      <c r="C21" s="12"/>
+      <c r="D21" s="9"/>
+      <c r="E21" s="21"/>
+      <c r="F21" s="21"/>
+      <c r="G21" s="21"/>
+      <c r="H21" s="21"/>
+      <c r="I21" s="21"/>
+      <c r="J21" s="9"/>
+      <c r="K21" s="21"/>
+      <c r="L21" s="21"/>
+      <c r="M21" s="21"/>
+      <c r="N21" s="9"/>
+      <c r="O21" s="9"/>
+      <c r="P21" s="9"/>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells>
+    <mergeCell ref="N3:P3"/>
+    <mergeCell ref="N4:P5"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="B6:J7"/>
+    <mergeCell ref="B8:J9"/>
+    <mergeCell ref="K3:M3"/>
+    <mergeCell ref="K4:M5"/>
+    <mergeCell ref="B4:J5"/>
+    <mergeCell ref="B3:J3"/>
+    <mergeCell ref="N12:N13"/>
+    <mergeCell ref="K10:M10"/>
+    <mergeCell ref="B10:J10"/>
+    <mergeCell ref="N6:P9"/>
+    <mergeCell ref="N10:P10"/>
+    <mergeCell ref="K6:M9"/>
+    <mergeCell ref="J12:J13"/>
+    <mergeCell ref="P12:P13"/>
+    <mergeCell ref="O12:O13"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="B12:B13"/>
+    <mergeCell ref="C12:C13"/>
+    <mergeCell ref="D12:D13"/>
+    <mergeCell ref="F12:H12"/>
+  </mergeCells>
+  <conditionalFormatting sqref="H21:I21 M21">
+    <cfRule type="cellIs" dxfId="0" priority="20" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <printOptions horizontalCentered="1"/>
+  <pageMargins left="0" right="0" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="5" scale="71" orientation="landscape"/>
+  <headerFooter>
+    <oddFooter>&amp;L&amp;"Angsana New,Bold"&amp;12QMTS-SFR-24, Rev. 00, 17/08/22&amp;C&amp;"Angsana New,Bold"&amp;12Page &amp;P of &amp;N</oddFooter>
+  </headerFooter>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet35.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{552E5169-3AD4-4957-88C1-AEBD803535CF}">
+  <dimension ref="A1:Q22"/>
+  <sheetViews>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="70" zoomScaleNormal="85" zoomScaleSheetLayoutView="70" workbookViewId="0">
+      <selection activeCell="E42" sqref="E42"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="2" width="16.44140625" customWidth="1" style="1"/>
+    <col min="3" max="3" width="23" customWidth="1" style="1"/>
+    <col min="4" max="4" width="25.109375" customWidth="1" style="1"/>
+    <col min="5" max="5" width="9.44140625" customWidth="1" style="1"/>
+    <col min="6" max="8" width="4.5546875" customWidth="1" style="8"/>
+    <col min="9" max="9" width="7.6640625" customWidth="1" style="8"/>
+    <col min="10" max="10" width="32.109375" customWidth="1" style="1"/>
+    <col min="11" max="13" width="4.5546875" customWidth="1" style="8"/>
+    <col min="14" max="14" width="33" customWidth="1" style="8"/>
+    <col min="15" max="15" width="6.5546875" customWidth="1" style="8"/>
+    <col min="16" max="16" width="17.44140625" customWidth="1" style="2"/>
+    <col min="17" max="16384" width="9.109375" customWidth="1" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="18" customHeight="1">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
+      <c r="F1" s="4"/>
+      <c r="G1" s="4"/>
+      <c r="H1" s="4"/>
+      <c r="I1" s="4"/>
+      <c r="J1" s="4"/>
+      <c r="K1" s="4"/>
+      <c r="L1" s="4"/>
+      <c r="M1" s="4"/>
+      <c r="N1" s="4"/>
+      <c r="O1" s="4"/>
+      <c r="P1" s="4"/>
+    </row>
+    <row r="2" ht="18" customHeight="1">
+      <c r="A2" s="4"/>
+      <c r="B2" s="4"/>
+      <c r="C2" s="4"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4"/>
+      <c r="G2" s="4"/>
+      <c r="H2" s="4"/>
+      <c r="I2" s="4"/>
+      <c r="J2" s="4"/>
+      <c r="K2" s="4"/>
+      <c r="L2" s="4"/>
+      <c r="M2" s="4"/>
+      <c r="N2" s="4"/>
+      <c r="O2" s="4"/>
+    </row>
+    <row r="3" ht="18" customHeight="1">
+      <c r="A3" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="62" t="s">
+        <v>28</v>
+      </c>
+      <c r="C3" s="62"/>
+      <c r="D3" s="62"/>
+      <c r="E3" s="62"/>
+      <c r="F3" s="62"/>
+      <c r="G3" s="62"/>
+      <c r="H3" s="62"/>
+      <c r="I3" s="62"/>
+      <c r="J3" s="62"/>
+      <c r="K3" s="61" t="s">
+        <v>2</v>
+      </c>
+      <c r="L3" s="61"/>
+      <c r="M3" s="61"/>
+      <c r="N3" s="56" t="s">
+        <v>29</v>
+      </c>
+      <c r="O3" s="56"/>
+      <c r="P3" s="57"/>
+      <c r="Q3" s="2"/>
+    </row>
+    <row r="4" ht="18" customHeight="1">
+      <c r="A4" s="58" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="60" t="s">
+        <v>30</v>
+      </c>
+      <c r="C4" s="60"/>
+      <c r="D4" s="60"/>
+      <c r="E4" s="60"/>
+      <c r="F4" s="60"/>
+      <c r="G4" s="60"/>
+      <c r="H4" s="60"/>
+      <c r="I4" s="60"/>
+      <c r="J4" s="60"/>
+      <c r="K4" s="43" t="s">
+        <v>4</v>
+      </c>
+      <c r="L4" s="44"/>
+      <c r="M4" s="45"/>
+      <c r="N4" s="35" t="s">
+        <v>30</v>
+      </c>
+      <c r="O4" s="35"/>
+      <c r="P4" s="36"/>
+      <c r="Q4" s="2"/>
+    </row>
+    <row r="5" ht="12.75" customHeight="1">
+      <c r="A5" s="58"/>
+      <c r="B5" s="60" t="s">
+        <v>30</v>
+      </c>
+      <c r="C5" s="60"/>
+      <c r="D5" s="60"/>
+      <c r="E5" s="60"/>
+      <c r="F5" s="60"/>
+      <c r="G5" s="60"/>
+      <c r="H5" s="60"/>
+      <c r="I5" s="60"/>
+      <c r="J5" s="60"/>
+      <c r="K5" s="49"/>
+      <c r="L5" s="50"/>
+      <c r="M5" s="51"/>
+      <c r="N5" s="39" t="s">
+        <v>30</v>
+      </c>
+      <c r="O5" s="39"/>
+      <c r="P5" s="40"/>
+      <c r="Q5" s="2"/>
+    </row>
+    <row r="6" ht="18" customHeight="1">
+      <c r="A6" s="59" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="60" t="s">
+        <v>30</v>
+      </c>
+      <c r="C6" s="60"/>
+      <c r="D6" s="60"/>
+      <c r="E6" s="60"/>
+      <c r="F6" s="60"/>
+      <c r="G6" s="60"/>
+      <c r="H6" s="60"/>
+      <c r="I6" s="60"/>
+      <c r="J6" s="60"/>
+      <c r="K6" s="43" t="s">
+        <v>6</v>
+      </c>
+      <c r="L6" s="44"/>
+      <c r="M6" s="45"/>
+      <c r="N6" s="35"/>
+      <c r="O6" s="35"/>
+      <c r="P6" s="36"/>
+      <c r="Q6" s="2"/>
+    </row>
+    <row r="7" ht="15" customHeight="1">
+      <c r="A7" s="58"/>
+      <c r="B7" s="60" t="s">
+        <v>31</v>
+      </c>
+      <c r="C7" s="60"/>
+      <c r="D7" s="60"/>
+      <c r="E7" s="60"/>
+      <c r="F7" s="60"/>
+      <c r="G7" s="60"/>
+      <c r="H7" s="60"/>
+      <c r="I7" s="60"/>
+      <c r="J7" s="60"/>
+      <c r="K7" s="46"/>
+      <c r="L7" s="47"/>
+      <c r="M7" s="48"/>
+      <c r="N7" s="37" t="s">
+        <v>32</v>
+      </c>
+      <c r="O7" s="37"/>
+      <c r="P7" s="38"/>
+      <c r="Q7" s="2"/>
+    </row>
+    <row r="8" ht="18" customHeight="1">
+      <c r="A8" s="59" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" s="60"/>
+      <c r="C8" s="60"/>
+      <c r="D8" s="60"/>
+      <c r="E8" s="60"/>
+      <c r="F8" s="60"/>
+      <c r="G8" s="60"/>
+      <c r="H8" s="60"/>
+      <c r="I8" s="60"/>
+      <c r="J8" s="60"/>
+      <c r="K8" s="46"/>
+      <c r="L8" s="47"/>
+      <c r="M8" s="48"/>
+      <c r="N8" s="37"/>
+      <c r="O8" s="37"/>
+      <c r="P8" s="38"/>
+      <c r="Q8" s="2"/>
+    </row>
+    <row r="9" ht="15" customHeight="1">
+      <c r="A9" s="59"/>
+      <c r="B9" s="60"/>
+      <c r="C9" s="60"/>
+      <c r="D9" s="60"/>
+      <c r="E9" s="60"/>
+      <c r="F9" s="60"/>
+      <c r="G9" s="60"/>
+      <c r="H9" s="60"/>
+      <c r="I9" s="60"/>
+      <c r="J9" s="60"/>
+      <c r="K9" s="49"/>
+      <c r="L9" s="50"/>
+      <c r="M9" s="51"/>
+      <c r="N9" s="39"/>
+      <c r="O9" s="39"/>
+      <c r="P9" s="40"/>
+      <c r="Q9" s="2"/>
+    </row>
+    <row r="10" ht="18" customHeight="1">
+      <c r="A10" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10" s="32"/>
+      <c r="C10" s="33"/>
+      <c r="D10" s="33"/>
+      <c r="E10" s="33"/>
+      <c r="F10" s="33"/>
+      <c r="G10" s="33"/>
+      <c r="H10" s="33"/>
+      <c r="I10" s="33"/>
+      <c r="J10" s="34"/>
+      <c r="K10" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="L10" s="30"/>
+      <c r="M10" s="31"/>
+      <c r="N10" s="41"/>
+      <c r="O10" s="41"/>
+      <c r="P10" s="42"/>
+      <c r="Q10" s="2"/>
+    </row>
+    <row r="11" ht="18" customHeight="1">
+      <c r="A11" s="6"/>
+      <c r="B11" s="11"/>
+      <c r="C11" s="10"/>
+      <c r="D11" s="10"/>
+      <c r="E11" s="10"/>
+      <c r="F11" s="10"/>
+      <c r="G11" s="5"/>
+      <c r="H11" s="5"/>
+      <c r="I11" s="5"/>
+      <c r="J11" s="10"/>
+      <c r="K11" s="10"/>
+      <c r="L11" s="5"/>
+      <c r="M11" s="5"/>
+      <c r="N11" s="5"/>
+      <c r="O11" s="5"/>
+      <c r="P11" s="5"/>
+      <c r="Q11" s="2"/>
+    </row>
+    <row r="12" ht="39.9" customHeight="1">
+      <c r="A12" s="23" t="s">
+        <v>10</v>
+      </c>
+      <c r="B12" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="C12" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="D12" s="23" t="s">
+        <v>13</v>
+      </c>
+      <c r="E12" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="F12" s="24" t="s">
+        <v>15</v>
+      </c>
+      <c r="G12" s="25"/>
+      <c r="H12" s="26"/>
+      <c r="I12" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="J12" s="23" t="s">
+        <v>17</v>
+      </c>
+      <c r="K12" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="L12" s="16"/>
+      <c r="M12" s="16"/>
+      <c r="N12" s="27" t="s">
+        <v>19</v>
+      </c>
+      <c r="O12" s="54" t="s">
+        <v>20</v>
+      </c>
+      <c r="P12" s="52" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="23"/>
+      <c r="B13" s="23"/>
+      <c r="C13" s="23"/>
+      <c r="D13" s="23"/>
+      <c r="E13" s="22" t="s">
+        <v>22</v>
+      </c>
+      <c r="F13" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="G13" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="H13" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="I13" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="J13" s="23"/>
+      <c r="K13" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="L13" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="M13" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="N13" s="28"/>
+      <c r="O13" s="55"/>
+      <c r="P13" s="53"/>
+    </row>
+    <row r="14">
+      <c r="A14" s="65" t="s">
+        <v>33</v>
+      </c>
+      <c r="B14" s="65" t="s">
+        <v>34</v>
+      </c>
+      <c r="C14" s="65" t="s">
+        <v>35</v>
+      </c>
+      <c r="D14" s="65" t="s">
+        <v>30</v>
+      </c>
+      <c r="E14" s="65" t="s">
+        <v>30</v>
+      </c>
+      <c r="F14" s="66" t="s">
+        <v>36</v>
+      </c>
+      <c r="G14" s="66" t="s">
+        <v>36</v>
+      </c>
+      <c r="H14" s="66" t="s">
+        <v>37</v>
+      </c>
+      <c r="I14" s="66" t="s">
+        <v>38</v>
+      </c>
+      <c r="J14" s="65" t="s">
+        <v>39</v>
+      </c>
+      <c r="K14" s="66" t="s">
+        <v>36</v>
+      </c>
+      <c r="L14" s="66" t="s">
+        <v>40</v>
+      </c>
+      <c r="M14" s="66" t="s">
+        <v>37</v>
+      </c>
+      <c r="N14" s="66" t="s">
+        <v>41</v>
+      </c>
+      <c r="O14" s="66" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="65" t="s">
+        <v>43</v>
+      </c>
+      <c r="B15" s="65" t="s">
+        <v>44</v>
+      </c>
+      <c r="C15" s="65" t="s">
+        <v>45</v>
+      </c>
+      <c r="D15" s="65" t="s">
+        <v>46</v>
+      </c>
+      <c r="E15" s="65" t="s">
+        <v>30</v>
+      </c>
+      <c r="F15" s="66" t="s">
+        <v>30</v>
+      </c>
+      <c r="G15" s="66" t="s">
+        <v>30</v>
+      </c>
+      <c r="H15" s="66" t="s">
+        <v>30</v>
+      </c>
+      <c r="I15" s="66" t="s">
+        <v>30</v>
+      </c>
+      <c r="J15" s="65" t="s">
+        <v>47</v>
+      </c>
+      <c r="K15" s="66" t="s">
+        <v>30</v>
+      </c>
+      <c r="L15" s="66" t="s">
+        <v>30</v>
+      </c>
+      <c r="M15" s="66" t="s">
+        <v>30</v>
+      </c>
+      <c r="N15" s="66" t="s">
+        <v>48</v>
+      </c>
+      <c r="O15" s="66" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="65" t="s">
+        <v>49</v>
+      </c>
+      <c r="B16" s="65" t="s">
+        <v>50</v>
+      </c>
+      <c r="C16" s="65" t="s">
+        <v>51</v>
+      </c>
+      <c r="D16" s="65" t="s">
+        <v>52</v>
+      </c>
+      <c r="E16" s="65" t="s">
+        <v>30</v>
+      </c>
+      <c r="F16" s="66" t="s">
+        <v>30</v>
+      </c>
+      <c r="G16" s="66" t="s">
+        <v>30</v>
+      </c>
+      <c r="H16" s="66" t="s">
+        <v>30</v>
+      </c>
+      <c r="I16" s="66" t="s">
+        <v>30</v>
+      </c>
+      <c r="J16" s="65" t="s">
+        <v>30</v>
+      </c>
+      <c r="K16" s="66" t="s">
+        <v>30</v>
+      </c>
+      <c r="L16" s="66" t="s">
+        <v>30</v>
+      </c>
+      <c r="M16" s="66" t="s">
+        <v>30</v>
+      </c>
+      <c r="N16" s="66" t="s">
+        <v>30</v>
+      </c>
+      <c r="O16" s="66" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="65" t="s">
+        <v>53</v>
+      </c>
+      <c r="B17" s="65" t="s">
+        <v>54</v>
+      </c>
+      <c r="C17" s="65" t="s">
+        <v>55</v>
+      </c>
+      <c r="D17" s="65" t="s">
+        <v>56</v>
+      </c>
+      <c r="E17" s="65" t="s">
+        <v>30</v>
+      </c>
+      <c r="F17" s="66" t="s">
+        <v>30</v>
+      </c>
+      <c r="G17" s="66" t="s">
+        <v>30</v>
+      </c>
+      <c r="H17" s="66" t="s">
+        <v>30</v>
+      </c>
+      <c r="I17" s="66" t="s">
+        <v>30</v>
+      </c>
+      <c r="J17" s="65" t="s">
+        <v>30</v>
+      </c>
+      <c r="K17" s="66" t="s">
+        <v>30</v>
+      </c>
+      <c r="L17" s="66" t="s">
+        <v>30</v>
+      </c>
+      <c r="M17" s="66" t="s">
+        <v>30</v>
+      </c>
+      <c r="N17" s="66" t="s">
+        <v>30</v>
+      </c>
+      <c r="O17" s="66" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="65" t="s">
+        <v>57</v>
+      </c>
+      <c r="B18" s="65" t="s">
+        <v>58</v>
+      </c>
+      <c r="C18" s="65" t="s">
+        <v>59</v>
+      </c>
+      <c r="D18" s="65" t="s">
+        <v>60</v>
+      </c>
+      <c r="E18" s="65" t="s">
+        <v>30</v>
+      </c>
+      <c r="F18" s="66" t="s">
+        <v>30</v>
+      </c>
+      <c r="G18" s="66" t="s">
+        <v>30</v>
+      </c>
+      <c r="H18" s="66" t="s">
+        <v>30</v>
+      </c>
+      <c r="I18" s="66" t="s">
+        <v>30</v>
+      </c>
+      <c r="J18" s="65" t="s">
+        <v>30</v>
+      </c>
+      <c r="K18" s="66" t="s">
+        <v>30</v>
+      </c>
+      <c r="L18" s="66" t="s">
+        <v>30</v>
+      </c>
+      <c r="M18" s="66" t="s">
+        <v>30</v>
+      </c>
+      <c r="N18" s="66" t="s">
+        <v>30</v>
+      </c>
+      <c r="O18" s="66" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="65" t="s">
+        <v>61</v>
+      </c>
+      <c r="B19" s="65" t="s">
+        <v>34</v>
+      </c>
+      <c r="C19" s="65" t="s">
+        <v>62</v>
+      </c>
+      <c r="D19" s="65" t="s">
+        <v>30</v>
+      </c>
+      <c r="E19" s="65" t="s">
+        <v>30</v>
+      </c>
+      <c r="F19" s="66" t="s">
+        <v>30</v>
+      </c>
+      <c r="G19" s="66" t="s">
+        <v>30</v>
+      </c>
+      <c r="H19" s="66" t="s">
+        <v>30</v>
+      </c>
+      <c r="I19" s="66" t="s">
+        <v>30</v>
+      </c>
+      <c r="J19" s="65" t="s">
+        <v>30</v>
+      </c>
+      <c r="K19" s="66" t="s">
+        <v>30</v>
+      </c>
+      <c r="L19" s="66" t="s">
+        <v>30</v>
+      </c>
+      <c r="M19" s="66" t="s">
+        <v>30</v>
+      </c>
+      <c r="N19" s="66" t="s">
+        <v>30</v>
+      </c>
+      <c r="O19" s="66" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="65" t="s">
+        <v>63</v>
+      </c>
+      <c r="B20" s="65" t="s">
+        <v>50</v>
+      </c>
+      <c r="C20" s="65" t="s">
+        <v>64</v>
+      </c>
+      <c r="D20" s="65" t="s">
+        <v>30</v>
+      </c>
+      <c r="E20" s="65" t="s">
+        <v>30</v>
+      </c>
+      <c r="F20" s="66" t="s">
+        <v>30</v>
+      </c>
+      <c r="G20" s="66" t="s">
+        <v>30</v>
+      </c>
+      <c r="H20" s="66" t="s">
+        <v>30</v>
+      </c>
+      <c r="I20" s="66" t="s">
+        <v>30</v>
+      </c>
+      <c r="J20" s="65" t="s">
+        <v>30</v>
+      </c>
+      <c r="K20" s="66" t="s">
+        <v>30</v>
+      </c>
+      <c r="L20" s="66" t="s">
+        <v>30</v>
+      </c>
+      <c r="M20" s="66" t="s">
+        <v>30</v>
+      </c>
+      <c r="N20" s="66" t="s">
+        <v>30</v>
+      </c>
+      <c r="O20" s="66" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="21" ht="24.9" customHeight="1">
+      <c r="A21" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="B21" s="12"/>
+      <c r="C21" s="12"/>
+      <c r="D21" s="9"/>
+      <c r="E21" s="21"/>
+      <c r="F21" s="21"/>
+      <c r="G21" s="21"/>
+      <c r="H21" s="21"/>
+      <c r="I21" s="21"/>
+      <c r="J21" s="9"/>
+      <c r="K21" s="21"/>
+      <c r="L21" s="21"/>
+      <c r="M21" s="21"/>
+      <c r="N21" s="9"/>
+      <c r="O21" s="9"/>
+      <c r="P21" s="9"/>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells>
+    <mergeCell ref="N3:P3"/>
+    <mergeCell ref="N4:P5"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="B6:J7"/>
+    <mergeCell ref="B8:J9"/>
+    <mergeCell ref="K3:M3"/>
+    <mergeCell ref="K4:M5"/>
+    <mergeCell ref="B4:J5"/>
+    <mergeCell ref="B3:J3"/>
+    <mergeCell ref="N12:N13"/>
+    <mergeCell ref="K10:M10"/>
+    <mergeCell ref="B10:J10"/>
+    <mergeCell ref="N6:P9"/>
+    <mergeCell ref="N10:P10"/>
+    <mergeCell ref="K6:M9"/>
+    <mergeCell ref="J12:J13"/>
+    <mergeCell ref="P12:P13"/>
+    <mergeCell ref="O12:O13"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="B12:B13"/>
+    <mergeCell ref="C12:C13"/>
+    <mergeCell ref="D12:D13"/>
+    <mergeCell ref="F12:H12"/>
+  </mergeCells>
+  <conditionalFormatting sqref="H21:I21 M21">
+    <cfRule type="cellIs" dxfId="0" priority="20" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <printOptions horizontalCentered="1"/>
+  <pageMargins left="0" right="0" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="5" scale="71" orientation="landscape"/>
+  <headerFooter>
+    <oddFooter>&amp;L&amp;"Angsana New,Bold"&amp;12QMTS-SFR-24, Rev. 00, 17/08/22&amp;C&amp;"Angsana New,Bold"&amp;12Page &amp;P of &amp;N</oddFooter>
+  </headerFooter>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet36.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{63D1635A-5B05-40A0-8623-7FF20A185649}">
+  <dimension ref="A1:Q22"/>
+  <sheetViews>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="70" zoomScaleNormal="85" zoomScaleSheetLayoutView="70" workbookViewId="0">
+      <selection activeCell="E42" sqref="E42"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="2" width="16.44140625" customWidth="1" style="1"/>
+    <col min="3" max="3" width="23" customWidth="1" style="1"/>
+    <col min="4" max="4" width="25.109375" customWidth="1" style="1"/>
+    <col min="5" max="5" width="9.44140625" customWidth="1" style="1"/>
+    <col min="6" max="8" width="4.5546875" customWidth="1" style="8"/>
+    <col min="9" max="9" width="7.6640625" customWidth="1" style="8"/>
+    <col min="10" max="10" width="32.109375" customWidth="1" style="1"/>
+    <col min="11" max="13" width="4.5546875" customWidth="1" style="8"/>
+    <col min="14" max="14" width="33" customWidth="1" style="8"/>
+    <col min="15" max="15" width="6.5546875" customWidth="1" style="8"/>
+    <col min="16" max="16" width="17.44140625" customWidth="1" style="2"/>
+    <col min="17" max="16384" width="9.109375" customWidth="1" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="18" customHeight="1">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
+      <c r="F1" s="4"/>
+      <c r="G1" s="4"/>
+      <c r="H1" s="4"/>
+      <c r="I1" s="4"/>
+      <c r="J1" s="4"/>
+      <c r="K1" s="4"/>
+      <c r="L1" s="4"/>
+      <c r="M1" s="4"/>
+      <c r="N1" s="4"/>
+      <c r="O1" s="4"/>
+      <c r="P1" s="4"/>
+    </row>
+    <row r="2" ht="18" customHeight="1">
+      <c r="A2" s="4"/>
+      <c r="B2" s="4"/>
+      <c r="C2" s="4"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4"/>
+      <c r="G2" s="4"/>
+      <c r="H2" s="4"/>
+      <c r="I2" s="4"/>
+      <c r="J2" s="4"/>
+      <c r="K2" s="4"/>
+      <c r="L2" s="4"/>
+      <c r="M2" s="4"/>
+      <c r="N2" s="4"/>
+      <c r="O2" s="4"/>
+    </row>
+    <row r="3" ht="18" customHeight="1">
+      <c r="A3" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="62" t="s">
+        <v>28</v>
+      </c>
+      <c r="C3" s="62"/>
+      <c r="D3" s="62"/>
+      <c r="E3" s="62"/>
+      <c r="F3" s="62"/>
+      <c r="G3" s="62"/>
+      <c r="H3" s="62"/>
+      <c r="I3" s="62"/>
+      <c r="J3" s="62"/>
+      <c r="K3" s="61" t="s">
+        <v>2</v>
+      </c>
+      <c r="L3" s="61"/>
+      <c r="M3" s="61"/>
+      <c r="N3" s="56" t="s">
+        <v>65</v>
+      </c>
+      <c r="O3" s="56"/>
+      <c r="P3" s="57"/>
+      <c r="Q3" s="2"/>
+    </row>
+    <row r="4" ht="18" customHeight="1">
+      <c r="A4" s="58" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="60" t="s">
+        <v>30</v>
+      </c>
+      <c r="C4" s="60"/>
+      <c r="D4" s="60"/>
+      <c r="E4" s="60"/>
+      <c r="F4" s="60"/>
+      <c r="G4" s="60"/>
+      <c r="H4" s="60"/>
+      <c r="I4" s="60"/>
+      <c r="J4" s="60"/>
+      <c r="K4" s="43" t="s">
+        <v>4</v>
+      </c>
+      <c r="L4" s="44"/>
+      <c r="M4" s="45"/>
+      <c r="N4" s="35" t="s">
+        <v>30</v>
+      </c>
+      <c r="O4" s="35"/>
+      <c r="P4" s="36"/>
+      <c r="Q4" s="2"/>
+    </row>
+    <row r="5" ht="12.75" customHeight="1">
+      <c r="A5" s="58"/>
+      <c r="B5" s="60" t="s">
+        <v>30</v>
+      </c>
+      <c r="C5" s="60"/>
+      <c r="D5" s="60"/>
+      <c r="E5" s="60"/>
+      <c r="F5" s="60"/>
+      <c r="G5" s="60"/>
+      <c r="H5" s="60"/>
+      <c r="I5" s="60"/>
+      <c r="J5" s="60"/>
+      <c r="K5" s="49"/>
+      <c r="L5" s="50"/>
+      <c r="M5" s="51"/>
+      <c r="N5" s="39" t="s">
+        <v>30</v>
+      </c>
+      <c r="O5" s="39"/>
+      <c r="P5" s="40"/>
+      <c r="Q5" s="2"/>
+    </row>
+    <row r="6" ht="18" customHeight="1">
+      <c r="A6" s="59" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="60" t="s">
+        <v>30</v>
+      </c>
+      <c r="C6" s="60"/>
+      <c r="D6" s="60"/>
+      <c r="E6" s="60"/>
+      <c r="F6" s="60"/>
+      <c r="G6" s="60"/>
+      <c r="H6" s="60"/>
+      <c r="I6" s="60"/>
+      <c r="J6" s="60"/>
+      <c r="K6" s="43" t="s">
+        <v>6</v>
+      </c>
+      <c r="L6" s="44"/>
+      <c r="M6" s="45"/>
+      <c r="N6" s="35"/>
+      <c r="O6" s="35"/>
+      <c r="P6" s="36"/>
+      <c r="Q6" s="2"/>
+    </row>
+    <row r="7" ht="15" customHeight="1">
+      <c r="A7" s="58"/>
+      <c r="B7" s="60" t="s">
+        <v>31</v>
+      </c>
+      <c r="C7" s="60"/>
+      <c r="D7" s="60"/>
+      <c r="E7" s="60"/>
+      <c r="F7" s="60"/>
+      <c r="G7" s="60"/>
+      <c r="H7" s="60"/>
+      <c r="I7" s="60"/>
+      <c r="J7" s="60"/>
+      <c r="K7" s="46"/>
+      <c r="L7" s="47"/>
+      <c r="M7" s="48"/>
+      <c r="N7" s="37" t="s">
+        <v>32</v>
+      </c>
+      <c r="O7" s="37"/>
+      <c r="P7" s="38"/>
+      <c r="Q7" s="2"/>
+    </row>
+    <row r="8" ht="18" customHeight="1">
+      <c r="A8" s="59" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" s="60"/>
+      <c r="C8" s="60"/>
+      <c r="D8" s="60"/>
+      <c r="E8" s="60"/>
+      <c r="F8" s="60"/>
+      <c r="G8" s="60"/>
+      <c r="H8" s="60"/>
+      <c r="I8" s="60"/>
+      <c r="J8" s="60"/>
+      <c r="K8" s="46"/>
+      <c r="L8" s="47"/>
+      <c r="M8" s="48"/>
+      <c r="N8" s="37"/>
+      <c r="O8" s="37"/>
+      <c r="P8" s="38"/>
+      <c r="Q8" s="2"/>
+    </row>
+    <row r="9" ht="15" customHeight="1">
+      <c r="A9" s="59"/>
+      <c r="B9" s="60"/>
+      <c r="C9" s="60"/>
+      <c r="D9" s="60"/>
+      <c r="E9" s="60"/>
+      <c r="F9" s="60"/>
+      <c r="G9" s="60"/>
+      <c r="H9" s="60"/>
+      <c r="I9" s="60"/>
+      <c r="J9" s="60"/>
+      <c r="K9" s="49"/>
+      <c r="L9" s="50"/>
+      <c r="M9" s="51"/>
+      <c r="N9" s="39"/>
+      <c r="O9" s="39"/>
+      <c r="P9" s="40"/>
+      <c r="Q9" s="2"/>
+    </row>
+    <row r="10" ht="18" customHeight="1">
+      <c r="A10" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10" s="32"/>
+      <c r="C10" s="33"/>
+      <c r="D10" s="33"/>
+      <c r="E10" s="33"/>
+      <c r="F10" s="33"/>
+      <c r="G10" s="33"/>
+      <c r="H10" s="33"/>
+      <c r="I10" s="33"/>
+      <c r="J10" s="34"/>
+      <c r="K10" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="L10" s="30"/>
+      <c r="M10" s="31"/>
+      <c r="N10" s="41"/>
+      <c r="O10" s="41"/>
+      <c r="P10" s="42"/>
+      <c r="Q10" s="2"/>
+    </row>
+    <row r="11" ht="18" customHeight="1">
+      <c r="A11" s="6"/>
+      <c r="B11" s="11"/>
+      <c r="C11" s="10"/>
+      <c r="D11" s="10"/>
+      <c r="E11" s="10"/>
+      <c r="F11" s="10"/>
+      <c r="G11" s="5"/>
+      <c r="H11" s="5"/>
+      <c r="I11" s="5"/>
+      <c r="J11" s="10"/>
+      <c r="K11" s="10"/>
+      <c r="L11" s="5"/>
+      <c r="M11" s="5"/>
+      <c r="N11" s="5"/>
+      <c r="O11" s="5"/>
+      <c r="P11" s="5"/>
+      <c r="Q11" s="2"/>
+    </row>
+    <row r="12" ht="39.9" customHeight="1">
+      <c r="A12" s="23" t="s">
+        <v>10</v>
+      </c>
+      <c r="B12" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="C12" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="D12" s="23" t="s">
+        <v>13</v>
+      </c>
+      <c r="E12" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="F12" s="24" t="s">
+        <v>15</v>
+      </c>
+      <c r="G12" s="25"/>
+      <c r="H12" s="26"/>
+      <c r="I12" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="J12" s="23" t="s">
+        <v>17</v>
+      </c>
+      <c r="K12" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="L12" s="16"/>
+      <c r="M12" s="16"/>
+      <c r="N12" s="27" t="s">
+        <v>19</v>
+      </c>
+      <c r="O12" s="54" t="s">
+        <v>20</v>
+      </c>
+      <c r="P12" s="52" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="23"/>
+      <c r="B13" s="23"/>
+      <c r="C13" s="23"/>
+      <c r="D13" s="23"/>
+      <c r="E13" s="22" t="s">
+        <v>22</v>
+      </c>
+      <c r="F13" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="G13" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="H13" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="I13" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="J13" s="23"/>
+      <c r="K13" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="L13" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="M13" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="N13" s="28"/>
+      <c r="O13" s="55"/>
+      <c r="P13" s="53"/>
+    </row>
+    <row r="14">
+      <c r="A14" s="65" t="s">
+        <v>33</v>
+      </c>
+      <c r="B14" s="65" t="s">
+        <v>34</v>
+      </c>
+      <c r="C14" s="65" t="s">
+        <v>46</v>
+      </c>
+      <c r="D14" s="65" t="s">
+        <v>30</v>
+      </c>
+      <c r="E14" s="65" t="s">
+        <v>30</v>
+      </c>
+      <c r="F14" s="66" t="s">
+        <v>36</v>
+      </c>
+      <c r="G14" s="66" t="s">
+        <v>40</v>
+      </c>
+      <c r="H14" s="66" t="s">
+        <v>37</v>
+      </c>
+      <c r="I14" s="66" t="s">
+        <v>30</v>
+      </c>
+      <c r="J14" s="65" t="s">
+        <v>66</v>
+      </c>
+      <c r="K14" s="66" t="s">
+        <v>40</v>
+      </c>
+      <c r="L14" s="66" t="s">
+        <v>40</v>
+      </c>
+      <c r="M14" s="66" t="s">
+        <v>67</v>
+      </c>
+      <c r="N14" s="66" t="s">
+        <v>41</v>
+      </c>
+      <c r="O14" s="66" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="65" t="s">
+        <v>43</v>
+      </c>
+      <c r="B15" s="65" t="s">
+        <v>44</v>
+      </c>
+      <c r="C15" s="65" t="s">
+        <v>52</v>
+      </c>
+      <c r="D15" s="65" t="s">
+        <v>30</v>
+      </c>
+      <c r="E15" s="65" t="s">
+        <v>30</v>
+      </c>
+      <c r="F15" s="66" t="s">
+        <v>36</v>
+      </c>
+      <c r="G15" s="66" t="s">
+        <v>69</v>
+      </c>
+      <c r="H15" s="66" t="s">
+        <v>67</v>
+      </c>
+      <c r="I15" s="66" t="s">
+        <v>30</v>
+      </c>
+      <c r="J15" s="65" t="s">
+        <v>66</v>
+      </c>
+      <c r="K15" s="66" t="s">
+        <v>40</v>
+      </c>
+      <c r="L15" s="66" t="s">
+        <v>69</v>
+      </c>
+      <c r="M15" s="66" t="s">
+        <v>24</v>
+      </c>
+      <c r="N15" s="66" t="s">
+        <v>48</v>
+      </c>
+      <c r="O15" s="66" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="65" t="s">
+        <v>49</v>
+      </c>
+      <c r="B16" s="65" t="s">
+        <v>50</v>
+      </c>
+      <c r="C16" s="65" t="s">
+        <v>56</v>
+      </c>
+      <c r="D16" s="65" t="s">
+        <v>30</v>
+      </c>
+      <c r="E16" s="65" t="s">
+        <v>30</v>
+      </c>
+      <c r="F16" s="66" t="s">
+        <v>30</v>
+      </c>
+      <c r="G16" s="66" t="s">
+        <v>30</v>
+      </c>
+      <c r="H16" s="66" t="s">
+        <v>30</v>
+      </c>
+      <c r="I16" s="66" t="s">
+        <v>30</v>
+      </c>
+      <c r="J16" s="65" t="s">
+        <v>30</v>
+      </c>
+      <c r="K16" s="66" t="s">
+        <v>30</v>
+      </c>
+      <c r="L16" s="66" t="s">
+        <v>30</v>
+      </c>
+      <c r="M16" s="66" t="s">
+        <v>30</v>
+      </c>
+      <c r="N16" s="66" t="s">
+        <v>30</v>
+      </c>
+      <c r="O16" s="66" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="65" t="s">
+        <v>53</v>
+      </c>
+      <c r="B17" s="65" t="s">
+        <v>54</v>
+      </c>
+      <c r="C17" s="65" t="s">
+        <v>60</v>
+      </c>
+      <c r="D17" s="65" t="s">
+        <v>30</v>
+      </c>
+      <c r="E17" s="65" t="s">
+        <v>30</v>
+      </c>
+      <c r="F17" s="66" t="s">
+        <v>30</v>
+      </c>
+      <c r="G17" s="66" t="s">
+        <v>30</v>
+      </c>
+      <c r="H17" s="66" t="s">
+        <v>30</v>
+      </c>
+      <c r="I17" s="66" t="s">
+        <v>30</v>
+      </c>
+      <c r="J17" s="65" t="s">
+        <v>30</v>
+      </c>
+      <c r="K17" s="66" t="s">
+        <v>30</v>
+      </c>
+      <c r="L17" s="66" t="s">
+        <v>30</v>
+      </c>
+      <c r="M17" s="66" t="s">
+        <v>30</v>
+      </c>
+      <c r="N17" s="66" t="s">
+        <v>30</v>
+      </c>
+      <c r="O17" s="66" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="65" t="s">
+        <v>57</v>
+      </c>
+      <c r="B18" s="65" t="s">
+        <v>58</v>
+      </c>
+      <c r="C18" s="65" t="s">
+        <v>70</v>
+      </c>
+      <c r="D18" s="65" t="s">
+        <v>30</v>
+      </c>
+      <c r="E18" s="65" t="s">
+        <v>30</v>
+      </c>
+      <c r="F18" s="66" t="s">
+        <v>30</v>
+      </c>
+      <c r="G18" s="66" t="s">
+        <v>30</v>
+      </c>
+      <c r="H18" s="66" t="s">
+        <v>30</v>
+      </c>
+      <c r="I18" s="66" t="s">
+        <v>30</v>
+      </c>
+      <c r="J18" s="65" t="s">
+        <v>30</v>
+      </c>
+      <c r="K18" s="66" t="s">
+        <v>30</v>
+      </c>
+      <c r="L18" s="66" t="s">
+        <v>30</v>
+      </c>
+      <c r="M18" s="66" t="s">
+        <v>30</v>
+      </c>
+      <c r="N18" s="66" t="s">
+        <v>30</v>
+      </c>
+      <c r="O18" s="66" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="65" t="s">
+        <v>61</v>
+      </c>
+      <c r="B19" s="65" t="s">
+        <v>34</v>
+      </c>
+      <c r="C19" s="65" t="s">
+        <v>71</v>
+      </c>
+      <c r="D19" s="65" t="s">
+        <v>30</v>
+      </c>
+      <c r="E19" s="65" t="s">
+        <v>30</v>
+      </c>
+      <c r="F19" s="66" t="s">
+        <v>30</v>
+      </c>
+      <c r="G19" s="66" t="s">
+        <v>30</v>
+      </c>
+      <c r="H19" s="66" t="s">
+        <v>30</v>
+      </c>
+      <c r="I19" s="66" t="s">
+        <v>30</v>
+      </c>
+      <c r="J19" s="65" t="s">
+        <v>30</v>
+      </c>
+      <c r="K19" s="66" t="s">
+        <v>30</v>
+      </c>
+      <c r="L19" s="66" t="s">
+        <v>30</v>
+      </c>
+      <c r="M19" s="66" t="s">
+        <v>30</v>
+      </c>
+      <c r="N19" s="66" t="s">
+        <v>30</v>
+      </c>
+      <c r="O19" s="66" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="65" t="s">
+        <v>63</v>
+      </c>
+      <c r="B20" s="65" t="s">
+        <v>50</v>
+      </c>
+      <c r="C20" s="65" t="s">
+        <v>72</v>
+      </c>
+      <c r="D20" s="65" t="s">
+        <v>30</v>
+      </c>
+      <c r="E20" s="65" t="s">
+        <v>30</v>
+      </c>
+      <c r="F20" s="66" t="s">
+        <v>30</v>
+      </c>
+      <c r="G20" s="66" t="s">
+        <v>30</v>
+      </c>
+      <c r="H20" s="66" t="s">
+        <v>30</v>
+      </c>
+      <c r="I20" s="66" t="s">
+        <v>30</v>
+      </c>
+      <c r="J20" s="65" t="s">
+        <v>30</v>
+      </c>
+      <c r="K20" s="66" t="s">
+        <v>30</v>
+      </c>
+      <c r="L20" s="66" t="s">
+        <v>30</v>
+      </c>
+      <c r="M20" s="66" t="s">
+        <v>30</v>
+      </c>
+      <c r="N20" s="66" t="s">
+        <v>30</v>
+      </c>
+      <c r="O20" s="66" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="21" ht="24.9" customHeight="1">
+      <c r="A21" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="B21" s="12"/>
+      <c r="C21" s="12"/>
+      <c r="D21" s="9"/>
+      <c r="E21" s="21"/>
+      <c r="F21" s="21"/>
+      <c r="G21" s="21"/>
+      <c r="H21" s="21"/>
+      <c r="I21" s="21"/>
+      <c r="J21" s="9"/>
+      <c r="K21" s="21"/>
+      <c r="L21" s="21"/>
+      <c r="M21" s="21"/>
+      <c r="N21" s="9"/>
+      <c r="O21" s="9"/>
+      <c r="P21" s="9"/>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells>
+    <mergeCell ref="N3:P3"/>
+    <mergeCell ref="N4:P5"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="B6:J7"/>
+    <mergeCell ref="B8:J9"/>
+    <mergeCell ref="K3:M3"/>
+    <mergeCell ref="K4:M5"/>
+    <mergeCell ref="B4:J5"/>
+    <mergeCell ref="B3:J3"/>
+    <mergeCell ref="N12:N13"/>
+    <mergeCell ref="K10:M10"/>
+    <mergeCell ref="B10:J10"/>
+    <mergeCell ref="N6:P9"/>
+    <mergeCell ref="N10:P10"/>
+    <mergeCell ref="K6:M9"/>
+    <mergeCell ref="J12:J13"/>
+    <mergeCell ref="P12:P13"/>
+    <mergeCell ref="O12:O13"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="B12:B13"/>
+    <mergeCell ref="C12:C13"/>
+    <mergeCell ref="D12:D13"/>
+    <mergeCell ref="F12:H12"/>
+  </mergeCells>
+  <conditionalFormatting sqref="H21:I21 M21">
+    <cfRule type="cellIs" dxfId="0" priority="20" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <printOptions horizontalCentered="1"/>
+  <pageMargins left="0" right="0" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="5" scale="71" orientation="landscape"/>
+  <headerFooter>
+    <oddFooter>&amp;L&amp;"Angsana New,Bold"&amp;12QMTS-SFR-24, Rev. 00, 17/08/22&amp;C&amp;"Angsana New,Bold"&amp;12Page &amp;P of &amp;N</oddFooter>
+  </headerFooter>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/dotnet6-epha-api/wwwroot/AttachedFileTemp/HAZOP Study Worksheet Template.xlsx
+++ b/dotnet6-epha-api/wwwroot/AttachedFileTemp/HAZOP Study Worksheet Template.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\dotnet6-epha-api\dotnet6-epha-api\wwwroot\AttachedFileTemp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8815F7EF-1D0C-4A8D-80C8-CC842E735560}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D1A7298-CE10-4375-A956-973F45FA5C94}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{60085F4A-5F1D-4B4C-9601-94633D9B0605}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{FBC5A3A8-9323-4A17-89A1-7BE371418AB7}"/>
   </bookViews>
   <sheets>
     <sheet name="WorksheetTemplate" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">WorksheetTemplate!$A$1:$Q$14</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">WorksheetTemplate!$A$1:$P$16</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">WorksheetTemplate!$1:$13</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="28">
   <si>
     <t>HAZOP STUDY  WORKSHEET</t>
   </si>
@@ -85,9 +85,6 @@
     <t>Major Accident Event</t>
   </si>
   <si>
-    <t>Safety Critical Equipment</t>
-  </si>
-  <si>
     <t>Existing Safeguards</t>
   </si>
   <si>
@@ -95,10 +92,10 @@
 Matrix</t>
   </si>
   <si>
+    <t>Action No</t>
+  </si>
+  <si>
     <t>Recommendations</t>
-  </si>
-  <si>
-    <t>Equipment Tag No.</t>
   </si>
   <si>
     <t>Action by</t>
@@ -126,7 +123,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -186,6 +183,14 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -403,7 +408,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="64">
+  <cellXfs count="66">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="centerContinuous" vertical="center"/>
@@ -566,9 +571,6 @@
     <xf numFmtId="0" fontId="5" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -583,6 +585,13 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -619,13 +628,13 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>16</xdr:col>
+      <xdr:col>15</xdr:col>
       <xdr:colOff>235325</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>71747</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
+      <xdr:col>15</xdr:col>
       <xdr:colOff>1026511</xdr:colOff>
       <xdr:row>1</xdr:row>
       <xdr:rowOff>152877</xdr:rowOff>
@@ -635,7 +644,7 @@
         <xdr:cNvPr id="2" name="Picture 14" descr="C:\Users\Sirachachp\AppData\Local\Microsoft\Windows\Temporary Internet Files\Content.Outlook\MM9BOPGC\Thaioil Corporate Logo (002).png">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1C8ED39A-59A9-4229-8DFB-C16DBAD19DF4}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{440648FC-7225-417C-856E-02E375DB5E49}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -658,7 +667,7 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="16252565" y="71747"/>
+          <a:off x="13821785" y="71747"/>
           <a:ext cx="791186" cy="309730"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -990,11 +999,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{41C2B557-C67F-418D-925B-827E315D7645}">
-  <dimension ref="A1:R15"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6BD86C21-72C4-4E25-A831-C0B6D3361ACA}">
+  <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="70" zoomScaleNormal="85" zoomScaleSheetLayoutView="70" workbookViewId="0">
-      <selection activeCell="U4" sqref="U4:U5"/>
+      <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -1003,18 +1012,18 @@
     <col min="3" max="3" width="23" style="51" customWidth="1"/>
     <col min="4" max="4" width="25.109375" style="51" customWidth="1"/>
     <col min="5" max="5" width="9.44140625" style="51" customWidth="1"/>
-    <col min="6" max="8" width="4.5546875" style="62" customWidth="1"/>
-    <col min="9" max="9" width="8.109375" style="62" customWidth="1"/>
-    <col min="10" max="10" width="9.5546875" style="62" customWidth="1"/>
-    <col min="11" max="11" width="32.109375" style="51" customWidth="1"/>
-    <col min="12" max="14" width="4.5546875" style="62" customWidth="1"/>
-    <col min="15" max="16" width="33" style="62" customWidth="1"/>
-    <col min="17" max="17" width="17.44140625" style="63" customWidth="1"/>
-    <col min="18" max="18" width="9.109375" style="51" customWidth="1"/>
-    <col min="19" max="16384" width="9.109375" style="51"/>
+    <col min="6" max="8" width="4.5546875" style="64" customWidth="1"/>
+    <col min="9" max="9" width="8.109375" style="64" customWidth="1"/>
+    <col min="10" max="10" width="32.109375" style="51" customWidth="1"/>
+    <col min="11" max="13" width="4.5546875" style="64" customWidth="1"/>
+    <col min="14" max="14" width="7.109375" style="64" customWidth="1"/>
+    <col min="15" max="15" width="33" style="64" customWidth="1"/>
+    <col min="16" max="16" width="17.44140625" style="65" customWidth="1"/>
+    <col min="17" max="17" width="9.109375" style="51" customWidth="1"/>
+    <col min="18" max="16384" width="9.109375" style="51"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" s="3" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" s="3" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1033,9 +1042,8 @@
       <c r="N1" s="2"/>
       <c r="O1" s="2"/>
       <c r="P1" s="2"/>
-      <c r="Q1" s="2"/>
-    </row>
-    <row r="2" spans="1:18" s="3" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:17" s="3" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2"/>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
@@ -1051,10 +1059,9 @@
       <c r="M2" s="2"/>
       <c r="N2" s="2"/>
       <c r="O2" s="2"/>
-      <c r="P2" s="2"/>
-      <c r="Q2" s="4"/>
-    </row>
-    <row r="3" spans="1:18" s="3" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P2" s="4"/>
+    </row>
+    <row r="3" spans="1:17" s="3" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>1</v>
       </c>
@@ -1067,18 +1074,17 @@
       <c r="H3" s="6"/>
       <c r="I3" s="6"/>
       <c r="J3" s="6"/>
-      <c r="K3" s="6"/>
-      <c r="L3" s="7" t="s">
+      <c r="K3" s="7" t="s">
         <v>2</v>
       </c>
+      <c r="L3" s="7"/>
       <c r="M3" s="7"/>
-      <c r="N3" s="7"/>
+      <c r="N3" s="8"/>
       <c r="O3" s="8"/>
-      <c r="P3" s="8"/>
-      <c r="Q3" s="9"/>
-      <c r="R3" s="4"/>
-    </row>
-    <row r="4" spans="1:18" s="3" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P3" s="9"/>
+      <c r="Q3" s="4"/>
+    </row>
+    <row r="4" spans="1:17" s="3" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="10" t="s">
         <v>3</v>
       </c>
@@ -1091,18 +1097,17 @@
       <c r="H4" s="11"/>
       <c r="I4" s="11"/>
       <c r="J4" s="11"/>
-      <c r="K4" s="11"/>
-      <c r="L4" s="12" t="s">
+      <c r="K4" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="M4" s="13"/>
-      <c r="N4" s="14"/>
+      <c r="L4" s="13"/>
+      <c r="M4" s="14"/>
+      <c r="N4" s="15"/>
       <c r="O4" s="15"/>
-      <c r="P4" s="15"/>
-      <c r="Q4" s="16"/>
-      <c r="R4" s="4"/>
-    </row>
-    <row r="5" spans="1:18" s="3" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P4" s="16"/>
+      <c r="Q4" s="4"/>
+    </row>
+    <row r="5" spans="1:17" s="3" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="10"/>
       <c r="B5" s="11"/>
       <c r="C5" s="11"/>
@@ -1113,16 +1118,15 @@
       <c r="H5" s="11"/>
       <c r="I5" s="11"/>
       <c r="J5" s="11"/>
-      <c r="K5" s="11"/>
-      <c r="L5" s="17"/>
-      <c r="M5" s="18"/>
-      <c r="N5" s="19"/>
+      <c r="K5" s="17"/>
+      <c r="L5" s="18"/>
+      <c r="M5" s="19"/>
+      <c r="N5" s="20"/>
       <c r="O5" s="20"/>
-      <c r="P5" s="20"/>
-      <c r="Q5" s="21"/>
-      <c r="R5" s="4"/>
-    </row>
-    <row r="6" spans="1:18" s="3" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P5" s="21"/>
+      <c r="Q5" s="4"/>
+    </row>
+    <row r="6" spans="1:17" s="3" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="22" t="s">
         <v>5</v>
       </c>
@@ -1135,18 +1139,17 @@
       <c r="H6" s="11"/>
       <c r="I6" s="11"/>
       <c r="J6" s="11"/>
-      <c r="K6" s="11"/>
-      <c r="L6" s="12" t="s">
+      <c r="K6" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="M6" s="13"/>
-      <c r="N6" s="14"/>
+      <c r="L6" s="13"/>
+      <c r="M6" s="14"/>
+      <c r="N6" s="15"/>
       <c r="O6" s="15"/>
-      <c r="P6" s="15"/>
-      <c r="Q6" s="16"/>
-      <c r="R6" s="4"/>
-    </row>
-    <row r="7" spans="1:18" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P6" s="16"/>
+      <c r="Q6" s="4"/>
+    </row>
+    <row r="7" spans="1:17" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="10"/>
       <c r="B7" s="11"/>
       <c r="C7" s="11"/>
@@ -1157,16 +1160,15 @@
       <c r="H7" s="11"/>
       <c r="I7" s="11"/>
       <c r="J7" s="11"/>
-      <c r="K7" s="11"/>
-      <c r="L7" s="23"/>
-      <c r="M7" s="24"/>
-      <c r="N7" s="25"/>
+      <c r="K7" s="23"/>
+      <c r="L7" s="24"/>
+      <c r="M7" s="25"/>
+      <c r="N7" s="26"/>
       <c r="O7" s="26"/>
-      <c r="P7" s="26"/>
-      <c r="Q7" s="27"/>
-      <c r="R7" s="4"/>
-    </row>
-    <row r="8" spans="1:18" s="3" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P7" s="27"/>
+      <c r="Q7" s="4"/>
+    </row>
+    <row r="8" spans="1:17" s="3" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="22" t="s">
         <v>7</v>
       </c>
@@ -1179,16 +1181,15 @@
       <c r="H8" s="11"/>
       <c r="I8" s="11"/>
       <c r="J8" s="11"/>
-      <c r="K8" s="11"/>
-      <c r="L8" s="23"/>
-      <c r="M8" s="24"/>
-      <c r="N8" s="25"/>
+      <c r="K8" s="23"/>
+      <c r="L8" s="24"/>
+      <c r="M8" s="25"/>
+      <c r="N8" s="26"/>
       <c r="O8" s="26"/>
-      <c r="P8" s="26"/>
-      <c r="Q8" s="27"/>
-      <c r="R8" s="4"/>
-    </row>
-    <row r="9" spans="1:18" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P8" s="27"/>
+      <c r="Q8" s="4"/>
+    </row>
+    <row r="9" spans="1:17" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="22"/>
       <c r="B9" s="11"/>
       <c r="C9" s="11"/>
@@ -1199,16 +1200,15 @@
       <c r="H9" s="11"/>
       <c r="I9" s="11"/>
       <c r="J9" s="11"/>
-      <c r="K9" s="11"/>
-      <c r="L9" s="17"/>
-      <c r="M9" s="18"/>
-      <c r="N9" s="19"/>
+      <c r="K9" s="17"/>
+      <c r="L9" s="18"/>
+      <c r="M9" s="19"/>
+      <c r="N9" s="20"/>
       <c r="O9" s="20"/>
-      <c r="P9" s="20"/>
-      <c r="Q9" s="21"/>
-      <c r="R9" s="4"/>
-    </row>
-    <row r="10" spans="1:18" s="3" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P9" s="21"/>
+      <c r="Q9" s="4"/>
+    </row>
+    <row r="10" spans="1:17" s="3" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="28" t="s">
         <v>8</v>
       </c>
@@ -1220,19 +1220,18 @@
       <c r="G10" s="30"/>
       <c r="H10" s="30"/>
       <c r="I10" s="30"/>
-      <c r="J10" s="30"/>
-      <c r="K10" s="31"/>
-      <c r="L10" s="32" t="s">
+      <c r="J10" s="31"/>
+      <c r="K10" s="32" t="s">
         <v>9</v>
       </c>
-      <c r="M10" s="33"/>
-      <c r="N10" s="34"/>
+      <c r="L10" s="33"/>
+      <c r="M10" s="34"/>
+      <c r="N10" s="35"/>
       <c r="O10" s="35"/>
-      <c r="P10" s="35"/>
-      <c r="Q10" s="36"/>
-      <c r="R10" s="4"/>
-    </row>
-    <row r="11" spans="1:18" s="3" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P10" s="36"/>
+      <c r="Q10" s="4"/>
+    </row>
+    <row r="11" spans="1:17" s="3" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="37"/>
       <c r="B11" s="38"/>
       <c r="C11" s="39"/>
@@ -1242,17 +1241,16 @@
       <c r="G11" s="40"/>
       <c r="H11" s="40"/>
       <c r="I11" s="40"/>
-      <c r="J11" s="40"/>
+      <c r="J11" s="39"/>
       <c r="K11" s="39"/>
-      <c r="L11" s="39"/>
+      <c r="L11" s="40"/>
       <c r="M11" s="40"/>
       <c r="N11" s="40"/>
       <c r="O11" s="40"/>
       <c r="P11" s="40"/>
-      <c r="Q11" s="40"/>
-      <c r="R11" s="4"/>
-    </row>
-    <row r="12" spans="1:18" ht="39.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Q11" s="4"/>
+    </row>
+    <row r="12" spans="1:17" ht="39.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="41" t="s">
         <v>10</v>
       </c>
@@ -1276,117 +1274,144 @@
       <c r="I12" s="46" t="s">
         <v>16</v>
       </c>
-      <c r="J12" s="46" t="s">
+      <c r="J12" s="41" t="s">
         <v>17</v>
       </c>
-      <c r="K12" s="41" t="s">
+      <c r="K12" s="47" t="s">
         <v>18</v>
       </c>
-      <c r="L12" s="47" t="s">
+      <c r="L12" s="48"/>
+      <c r="M12" s="48"/>
+      <c r="N12" s="49" t="s">
         <v>19</v>
       </c>
-      <c r="M12" s="48"/>
-      <c r="N12" s="48"/>
       <c r="O12" s="49" t="s">
         <v>20</v>
       </c>
-      <c r="P12" s="49" t="s">
+      <c r="P12" s="50" t="s">
         <v>21</v>
       </c>
-      <c r="Q12" s="50" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A13" s="41"/>
       <c r="B13" s="41"/>
       <c r="C13" s="41"/>
       <c r="D13" s="41"/>
       <c r="E13" s="52" t="s">
+        <v>22</v>
+      </c>
+      <c r="F13" s="53" t="s">
         <v>23</v>
       </c>
-      <c r="F13" s="53" t="s">
+      <c r="G13" s="53" t="s">
         <v>24</v>
       </c>
-      <c r="G13" s="53" t="s">
+      <c r="H13" s="53" t="s">
         <v>25</v>
       </c>
-      <c r="H13" s="53" t="s">
+      <c r="I13" s="53" t="s">
         <v>26</v>
       </c>
-      <c r="I13" s="53" t="s">
-        <v>27</v>
-      </c>
-      <c r="J13" s="53" t="s">
-        <v>27</v>
-      </c>
-      <c r="K13" s="41"/>
-      <c r="L13" s="54" t="s">
+      <c r="J13" s="41"/>
+      <c r="K13" s="54" t="s">
+        <v>23</v>
+      </c>
+      <c r="L13" s="53" t="s">
         <v>24</v>
       </c>
       <c r="M13" s="53" t="s">
         <v>25</v>
       </c>
-      <c r="N13" s="53" t="s">
-        <v>26</v>
-      </c>
+      <c r="N13" s="55"/>
       <c r="O13" s="55"/>
       <c r="P13" s="56"/>
-      <c r="Q13" s="57"/>
-    </row>
-    <row r="14" spans="1:18" s="61" customFormat="1" ht="24.9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="58"/>
-      <c r="B14" s="59"/>
-      <c r="C14" s="59"/>
-      <c r="D14" s="58"/>
-      <c r="E14" s="60"/>
-      <c r="F14" s="60"/>
-      <c r="G14" s="60"/>
-      <c r="H14" s="60"/>
-      <c r="I14" s="60"/>
-      <c r="J14" s="60"/>
-      <c r="K14" s="58"/>
-      <c r="L14" s="60"/>
-      <c r="M14" s="60"/>
-      <c r="N14" s="60"/>
-      <c r="O14" s="58"/>
-      <c r="P14" s="58"/>
-      <c r="Q14" s="58"/>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A15" s="51" t="s">
-        <v>28</v>
-      </c>
+    </row>
+    <row r="14" spans="1:17" s="60" customFormat="1" ht="24.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="57"/>
+      <c r="B14" s="58"/>
+      <c r="C14" s="58"/>
+      <c r="D14" s="57"/>
+      <c r="E14" s="59"/>
+      <c r="F14" s="59"/>
+      <c r="G14" s="59"/>
+      <c r="H14" s="59"/>
+      <c r="I14" s="59"/>
+      <c r="J14" s="57"/>
+      <c r="K14" s="59"/>
+      <c r="L14" s="59"/>
+      <c r="M14" s="59"/>
+      <c r="N14" s="57"/>
+      <c r="O14" s="57"/>
+      <c r="P14" s="57"/>
+    </row>
+    <row r="15" spans="1:17" ht="19.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="61" t="s">
+        <v>27</v>
+      </c>
+      <c r="B15" s="3"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="62"/>
+      <c r="G15" s="62"/>
+      <c r="H15" s="62"/>
+      <c r="I15" s="62"/>
+      <c r="J15" s="3"/>
+      <c r="K15" s="62"/>
+      <c r="L15" s="62"/>
+      <c r="M15" s="62"/>
+      <c r="N15" s="62"/>
+      <c r="O15" s="62"/>
+      <c r="P15" s="4"/>
+    </row>
+    <row r="16" spans="1:17" ht="55.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="63"/>
+      <c r="B16" s="63"/>
+      <c r="C16" s="63"/>
+      <c r="D16" s="63"/>
+      <c r="E16" s="63"/>
+      <c r="F16" s="63"/>
+      <c r="G16" s="63"/>
+      <c r="H16" s="63"/>
+      <c r="I16" s="63"/>
+      <c r="J16" s="63"/>
+      <c r="K16" s="63"/>
+      <c r="L16" s="63"/>
+      <c r="M16" s="63"/>
+      <c r="N16" s="63"/>
+      <c r="O16" s="63"/>
+      <c r="P16" s="63"/>
     </row>
   </sheetData>
-  <mergeCells count="25">
+  <mergeCells count="26">
+    <mergeCell ref="O12:O13"/>
     <mergeCell ref="P12:P13"/>
-    <mergeCell ref="Q12:Q13"/>
-    <mergeCell ref="B10:K10"/>
-    <mergeCell ref="L10:N10"/>
-    <mergeCell ref="O10:Q10"/>
+    <mergeCell ref="A16:P16"/>
+    <mergeCell ref="B10:J10"/>
+    <mergeCell ref="K10:M10"/>
+    <mergeCell ref="N10:P10"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="B12:B13"/>
     <mergeCell ref="C12:C13"/>
     <mergeCell ref="D12:D13"/>
     <mergeCell ref="F12:H12"/>
-    <mergeCell ref="K12:K13"/>
-    <mergeCell ref="O12:O13"/>
+    <mergeCell ref="J12:J13"/>
+    <mergeCell ref="N12:N13"/>
     <mergeCell ref="A6:A7"/>
-    <mergeCell ref="B6:K7"/>
-    <mergeCell ref="L6:N9"/>
-    <mergeCell ref="O6:Q9"/>
+    <mergeCell ref="B6:J7"/>
+    <mergeCell ref="K6:M9"/>
+    <mergeCell ref="N6:P9"/>
     <mergeCell ref="A8:A9"/>
-    <mergeCell ref="B8:K9"/>
-    <mergeCell ref="B3:K3"/>
-    <mergeCell ref="L3:N3"/>
-    <mergeCell ref="O3:Q3"/>
+    <mergeCell ref="B8:J9"/>
+    <mergeCell ref="B3:J3"/>
+    <mergeCell ref="K3:M3"/>
+    <mergeCell ref="N3:P3"/>
     <mergeCell ref="A4:A5"/>
-    <mergeCell ref="B4:K5"/>
-    <mergeCell ref="L4:N5"/>
-    <mergeCell ref="O4:Q5"/>
+    <mergeCell ref="B4:J5"/>
+    <mergeCell ref="K4:M5"/>
+    <mergeCell ref="N4:P5"/>
   </mergeCells>
-  <conditionalFormatting sqref="H14:J14 N14">
+  <conditionalFormatting sqref="H14:I14 M14">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
       <formula>1</formula>
     </cfRule>
